--- a/데이터테이블/아이템 데이터 테이블.xlsx
+++ b/데이터테이블/아이템 데이터 테이블.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\REVOLT~1\REVOLT~1\데이터~1\데이터~1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1a6f263b7920f829/바탕 화면/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0E0F436-1496-41C2-9B2C-951645508124}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="6" documentId="8_{0A1DADDE-AAFA-46CC-8DA1-0CE98A060D26}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{7C31D832-FAD4-4C65-8A0B-E0E22E33024C}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8916" activeTab="1" xr2:uid="{8059BBFD-96BC-42E1-A9DD-996BAD7E44E4}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8910" activeTab="1" xr2:uid="{8059BBFD-96BC-42E1-A9DD-996BAD7E44E4}"/>
   </bookViews>
   <sheets>
     <sheet name="문서 정보" sheetId="3" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="628" uniqueCount="245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="584" uniqueCount="238">
   <si>
     <t>장비 아이템</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -113,18 +113,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Nomaldrop</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Emergency</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Block</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Bundle</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -189,14 +177,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Emergencydrop</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Blockdrop</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>아이템 설명</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -209,18 +189,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>일반 이슈에서 드랍될 확률</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>봉쇄 이슈에서 드랍될 확률</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>긴급 이슈에서 드랍될 확률</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>같은 종류 아이템 소지 제한</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1013,6 +981,10 @@
   </si>
   <si>
     <t xml:space="preserve">int, bool, string, float 중 하나를 자유롭게 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>장빞 아이템은 드랍되지 않고 오로지 비밀상점에서만 구입할 수 있다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1117,7 +1089,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1146,9 +1118,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -1483,36 +1452,36 @@
       <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="5" max="5" width="11.59765625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="3:11" x14ac:dyDescent="0.4">
-      <c r="C7" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
+    <row r="7" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C7" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
     </row>
-    <row r="8" spans="3:11" x14ac:dyDescent="0.4">
-      <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
+    <row r="8" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
     </row>
-    <row r="9" spans="3:11" x14ac:dyDescent="0.4">
+    <row r="9" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
@@ -1523,76 +1492,76 @@
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
     </row>
-    <row r="10" spans="3:11" x14ac:dyDescent="0.4">
+    <row r="10" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C10" s="3" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
-      <c r="I10" s="14" t="s">
-        <v>90</v>
-      </c>
-      <c r="J10" s="14"/>
+      <c r="I10" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="J10" s="13"/>
       <c r="K10" s="3" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="11" spans="3:11" x14ac:dyDescent="0.4">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="11" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C11" s="3">
         <v>1</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
-      <c r="I11" s="14" t="s">
-        <v>93</v>
-      </c>
-      <c r="J11" s="14"/>
+      <c r="I11" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="J11" s="13"/>
       <c r="K11" s="3"/>
     </row>
-    <row r="12" spans="3:11" x14ac:dyDescent="0.4">
+    <row r="12" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C12" s="4">
         <v>101</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
-      <c r="I12" s="14" t="s">
-        <v>96</v>
-      </c>
-      <c r="J12" s="14"/>
+      <c r="I12" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="J12" s="13"/>
       <c r="K12" s="3" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="13" spans="3:11" x14ac:dyDescent="0.4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C13" s="5">
         <v>201</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
@@ -1601,15 +1570,15 @@
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
     </row>
-    <row r="14" spans="3:11" x14ac:dyDescent="0.4">
+    <row r="14" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C14" s="3">
         <v>301</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
@@ -1618,15 +1587,15 @@
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
     </row>
-    <row r="15" spans="3:11" x14ac:dyDescent="0.4">
+    <row r="15" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C15" s="6">
         <v>401</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
@@ -1635,15 +1604,15 @@
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
     </row>
-    <row r="16" spans="3:11" x14ac:dyDescent="0.4">
+    <row r="16" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C16" s="3">
         <v>501</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
@@ -1652,15 +1621,15 @@
       <c r="J16" s="2"/>
       <c r="K16" s="2"/>
     </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.4">
+    <row r="17" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C17" s="3">
         <v>601</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
@@ -1669,7 +1638,7 @@
       <c r="J17" s="2"/>
       <c r="K17" s="2"/>
     </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.4">
+    <row r="18" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
@@ -1694,74 +1663,74 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B36C15E-DDD8-44F4-AA27-EAACC0E62D51}">
-  <dimension ref="B2:I78"/>
+  <dimension ref="B2:I69"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="11.09765625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.3984375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="57.3984375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.09765625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="22.19921875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6.69921875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.19921875" customWidth="1"/>
-    <col min="13" max="13" width="9.19921875" customWidth="1"/>
+    <col min="2" max="2" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="57.375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.25" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.75" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.25" customWidth="1"/>
+    <col min="13" max="13" width="9.25" customWidth="1"/>
     <col min="14" max="14" width="11" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="27.19921875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="27.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="C2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="G2" s="13" t="s">
+        <v>236</v>
+      </c>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+    </row>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="F3" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="G2" s="14" t="s">
-        <v>244</v>
-      </c>
-      <c r="H2" s="14"/>
-      <c r="I2" s="14"/>
-    </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="F3" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="G3" s="14"/>
-      <c r="H3" s="14"/>
-      <c r="I3" s="14"/>
-    </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B5" s="14" t="s">
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="13"/>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B5" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="14"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14"/>
-    </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B6" s="14"/>
-      <c r="C6" s="14"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="14"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B6" s="13"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
       <c r="H6" s="1" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="I6" s="1"/>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B7" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>4</v>
@@ -1770,13 +1739,13 @@
         <v>5</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.4">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B8" s="1" t="s">
         <v>6</v>
       </c>
@@ -1784,19 +1753,19 @@
         <v>11</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.4">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B9" s="1" t="s">
         <v>18</v>
       </c>
@@ -1804,19 +1773,19 @@
         <v>11</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.4">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B10" s="1" t="s">
         <v>7</v>
       </c>
@@ -1824,19 +1793,19 @@
         <v>11</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="E10" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="H10" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="H10" s="1" t="s">
-        <v>79</v>
-      </c>
       <c r="I10" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.4">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B11" s="1" t="s">
         <v>8</v>
       </c>
@@ -1844,27 +1813,27 @@
         <v>11</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.4">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B12" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.4">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1872,27 +1841,27 @@
         <v>13</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.4">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B14" s="1" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.4">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1900,27 +1869,27 @@
         <v>13</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.4">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B16" s="1" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.4">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B17" s="1" t="s">
         <v>14</v>
       </c>
@@ -1928,13 +1897,13 @@
         <v>13</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.4">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B18" s="1" t="s">
         <v>15</v>
       </c>
@@ -1942,13 +1911,13 @@
         <v>13</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.4">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B19" s="1" t="s">
         <v>16</v>
       </c>
@@ -1956,13 +1925,13 @@
         <v>13</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.4">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B20" s="1" t="s">
         <v>17</v>
       </c>
@@ -1970,718 +1939,595 @@
         <v>13</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.4">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B21" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.4">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B22" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.4">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B23" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.4">
+        <v>35</v>
+      </c>
+      <c r="G23" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B24" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B25" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B26" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C26" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="28" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B28" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C28" s="13"/>
+      <c r="D28" s="13"/>
+      <c r="E28" s="13"/>
+    </row>
+    <row r="29" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B29" s="13"/>
+      <c r="C29" s="13"/>
+      <c r="D29" s="13"/>
+      <c r="E29" s="13"/>
+    </row>
+    <row r="30" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B30" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B31" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C31" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D26" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B27" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C27" s="1" t="s">
+      <c r="D31" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="32" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B32" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C32" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D27" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B31" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="C31" s="14"/>
-      <c r="D31" s="14"/>
-      <c r="E31" s="14"/>
-    </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B32" s="14"/>
-      <c r="C32" s="14"/>
-      <c r="D32" s="14"/>
-      <c r="E32" s="14"/>
-    </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="D32" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B33" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>242</v>
+        <v>11</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>4</v>
+        <v>59</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.4">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="34" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B34" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.4">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="35" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B35" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.4">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="36" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B36" s="1" t="s">
-        <v>7</v>
+        <v>176</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>11</v>
+        <v>177</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>67</v>
+        <v>164</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="37" spans="2:5" x14ac:dyDescent="0.4">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="37" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B37" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="38" spans="2:5" x14ac:dyDescent="0.4">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="38" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B38" s="1" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="39" spans="2:5" x14ac:dyDescent="0.4">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="39" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B39" s="1" t="s">
-        <v>184</v>
+        <v>162</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>185</v>
+        <v>163</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="40" spans="2:5" x14ac:dyDescent="0.4">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="40" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B40" s="1" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>67</v>
+        <v>32</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="41" spans="2:5" x14ac:dyDescent="0.4">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="41" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B41" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="42" spans="2:5" x14ac:dyDescent="0.4">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="42" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B42" s="1" t="s">
-        <v>170</v>
+        <v>16</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>171</v>
+        <v>13</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>172</v>
+        <v>32</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="43" spans="2:5" x14ac:dyDescent="0.4">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="43" spans="2:5" ht="17.45" x14ac:dyDescent="0.4">
       <c r="B43" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="44" spans="2:5" x14ac:dyDescent="0.4">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="44" spans="2:5" ht="17.45" x14ac:dyDescent="0.4">
       <c r="B44" s="1" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>68</v>
+        <v>32</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="45" spans="2:5" x14ac:dyDescent="0.4">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="45" spans="2:5" ht="17.45" x14ac:dyDescent="0.4">
       <c r="B45" s="1" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D45" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="46" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B46" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="47" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B47" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="48" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B48" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E48" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E45" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="46" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B46" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C46" s="1" t="s">
+    </row>
+    <row r="52" spans="2:5" ht="17.45" x14ac:dyDescent="0.4">
+      <c r="B52" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="C52" s="13"/>
+      <c r="D52" s="13"/>
+      <c r="E52" s="13"/>
+    </row>
+    <row r="53" spans="2:5" ht="17.45" x14ac:dyDescent="0.4">
+      <c r="B53" s="13"/>
+      <c r="C53" s="13"/>
+      <c r="D53" s="13"/>
+      <c r="E53" s="13"/>
+    </row>
+    <row r="54" spans="2:5" ht="17.45" x14ac:dyDescent="0.4">
+      <c r="B54" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B55" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="56" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B56" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="57" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B57" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="58" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B58" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="59" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B59" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="60" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B60" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="61" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B61" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="62" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B62" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="63" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B63" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C63" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D46" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="E46" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="47" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B47" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C47" s="1" t="s">
+      <c r="D63" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="64" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B64" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C64" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D47" s="1" t="s">
+      <c r="D64" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="65" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B65" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="66" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B66" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="67" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B67" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="68" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B68" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="69" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B69" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E69" s="1" t="s">
         <v>35</v>
-      </c>
-      <c r="E47" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="48" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B48" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="E48" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="49" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B49" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D49" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="E49" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="50" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B50" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D50" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="E50" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="51" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B51" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D51" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="E51" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="52" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B52" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D52" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="E52" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="53" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B53" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D53" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="E53" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="54" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B54" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D54" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="E54" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="58" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B58" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="C58" s="14"/>
-      <c r="D58" s="14"/>
-      <c r="E58" s="14"/>
-    </row>
-    <row r="59" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B59" s="14"/>
-      <c r="C59" s="14"/>
-      <c r="D59" s="14"/>
-      <c r="E59" s="14"/>
-    </row>
-    <row r="60" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B60" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C60" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="D60" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E60" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="61" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B61" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C61" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D61" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="E61" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="62" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B62" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C62" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D62" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="E62" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="63" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B63" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C63" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D63" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="E63" s="1" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="64" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B64" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C64" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D64" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="E64" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="65" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B65" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C65" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="D65" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E65" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="66" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B66" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="C66" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D66" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="E66" s="1" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="67" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B67" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="C67" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D67" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="E67" s="1" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="68" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B68" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="C68" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D68" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="E68" s="1" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="69" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B69" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C69" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D69" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="E69" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="70" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B70" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C70" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D70" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="E70" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="71" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B71" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C71" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D71" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="E71" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="72" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B72" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C72" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D72" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="E72" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="73" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B73" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C73" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D73" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="E73" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="74" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B74" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C74" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D74" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="E74" s="1" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="75" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B75" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C75" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D75" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="E75" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="76" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B76" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C76" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D76" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="E76" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="77" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B77" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C77" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D77" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="E77" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="78" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B78" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C78" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D78" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="E78" s="1" t="s">
-        <v>40</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="G2:I2"/>
     <mergeCell ref="F3:I3"/>
-    <mergeCell ref="B58:E59"/>
-    <mergeCell ref="B31:E32"/>
+    <mergeCell ref="B52:E53"/>
+    <mergeCell ref="B28:E29"/>
     <mergeCell ref="B5:E6"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -2692,31 +2538,28 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E2A1BC4-CB06-4245-B5CC-AAC046658193}">
-  <dimension ref="A2:U18"/>
+  <dimension ref="A2:R18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="N28" sqref="N28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="13.69921875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.09765625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.19921875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.19921875" customWidth="1"/>
-    <col min="11" max="12" width="11.3984375" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="9.59765625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.19921875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="15.19921875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="10.09765625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="50.59765625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="55" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.25" customWidth="1"/>
+    <col min="11" max="12" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="50.625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="55" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>6</v>
@@ -2731,19 +2574,19 @@
         <v>8</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>9</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>10</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="K2" s="1" t="s">
         <v>14</v>
@@ -2758,39 +2601,30 @@
         <v>17</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="P2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="R2" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="Q2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="R2" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="S2" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="T2" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="U2" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.4">
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>201</v>
       </c>
       <c r="B3" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="C3" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="D3" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="F3">
         <v>3</v>
@@ -2799,19 +2633,19 @@
         <v>2</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="I3" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="J3" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="K3" t="b">
         <v>0</v>
       </c>
       <c r="L3" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="M3" t="b">
         <v>1</v>
@@ -2825,34 +2659,25 @@
       <c r="P3" s="8">
         <v>0</v>
       </c>
-      <c r="Q3" t="b">
-        <v>0</v>
-      </c>
-      <c r="R3" t="b">
-        <v>0</v>
-      </c>
-      <c r="S3" t="b">
-        <v>0</v>
-      </c>
-      <c r="T3" t="s">
-        <v>133</v>
-      </c>
-      <c r="U3" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="Q3" t="s">
+        <v>125</v>
+      </c>
+      <c r="R3" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>202</v>
       </c>
       <c r="B4" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="C4" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="D4" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="F4">
         <v>3</v>
@@ -2861,19 +2686,19 @@
         <v>2</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="I4" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="J4" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="K4" t="b">
         <v>0</v>
       </c>
       <c r="L4" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="M4" t="b">
         <v>1</v>
@@ -2887,34 +2712,25 @@
       <c r="P4" s="8">
         <v>0</v>
       </c>
-      <c r="Q4" t="b">
-        <v>0</v>
-      </c>
-      <c r="R4" t="b">
-        <v>0</v>
-      </c>
-      <c r="S4" t="b">
-        <v>0</v>
-      </c>
-      <c r="T4" t="s">
-        <v>146</v>
-      </c>
-      <c r="U4" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="Q4" t="s">
+        <v>138</v>
+      </c>
+      <c r="R4" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>203</v>
       </c>
       <c r="B5" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="C5" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="D5" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="F5">
         <v>3</v>
@@ -2923,19 +2739,19 @@
         <v>2</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="I5" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="J5" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="K5" t="b">
         <v>0</v>
       </c>
       <c r="L5" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="M5" t="b">
         <v>1</v>
@@ -2949,34 +2765,25 @@
       <c r="P5" s="8">
         <v>0</v>
       </c>
-      <c r="Q5" t="b">
-        <v>0</v>
-      </c>
-      <c r="R5" t="b">
-        <v>0</v>
-      </c>
-      <c r="S5" t="b">
-        <v>0</v>
-      </c>
-      <c r="T5" t="s">
-        <v>147</v>
-      </c>
-      <c r="U5" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="Q5" t="s">
+        <v>139</v>
+      </c>
+      <c r="R5" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>204</v>
       </c>
       <c r="B6" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="C6" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="D6" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="F6">
         <v>3</v>
@@ -2985,19 +2792,19 @@
         <v>-1</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="I6" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="J6" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="K6" t="b">
         <v>0</v>
       </c>
       <c r="L6" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="M6" t="b">
         <v>1</v>
@@ -3011,34 +2818,25 @@
       <c r="P6" s="8">
         <v>0</v>
       </c>
-      <c r="Q6" t="b">
-        <v>0</v>
-      </c>
-      <c r="R6" t="b">
-        <v>0</v>
-      </c>
-      <c r="S6" t="b">
-        <v>0</v>
-      </c>
-      <c r="T6" t="s">
-        <v>148</v>
-      </c>
-      <c r="U6" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="Q6" t="s">
+        <v>140</v>
+      </c>
+      <c r="R6" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>205</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="C7" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="D7" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="F7">
         <v>3</v>
@@ -3047,19 +2845,19 @@
         <v>3</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="I7" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="J7" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="K7" t="b">
         <v>0</v>
       </c>
       <c r="L7" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="M7" t="b">
         <v>1</v>
@@ -3073,34 +2871,25 @@
       <c r="P7" s="8">
         <v>1</v>
       </c>
-      <c r="Q7" t="b">
-        <v>0</v>
-      </c>
-      <c r="R7" t="b">
-        <v>0</v>
-      </c>
-      <c r="S7" t="b">
-        <v>0</v>
-      </c>
-      <c r="T7" t="s">
-        <v>149</v>
-      </c>
-      <c r="U7" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="Q7" t="s">
+        <v>141</v>
+      </c>
+      <c r="R7" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>206</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="C8" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="D8" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="F8">
         <v>3</v>
@@ -3109,19 +2898,19 @@
         <v>3</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="I8" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="J8" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="K8" t="b">
         <v>0</v>
       </c>
       <c r="L8" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="M8" t="b">
         <v>1</v>
@@ -3135,34 +2924,25 @@
       <c r="P8" s="8">
         <v>1</v>
       </c>
-      <c r="Q8" t="b">
-        <v>0</v>
-      </c>
-      <c r="R8" t="b">
-        <v>0</v>
-      </c>
-      <c r="S8" t="b">
-        <v>0</v>
-      </c>
-      <c r="T8" t="s">
-        <v>151</v>
-      </c>
-      <c r="U8" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="Q8" t="s">
+        <v>143</v>
+      </c>
+      <c r="R8" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>207</v>
       </c>
       <c r="B9" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="C9" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="D9" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="F9">
         <v>3</v>
@@ -3171,19 +2951,19 @@
         <v>3</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="I9" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="J9" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="K9" t="b">
         <v>0</v>
       </c>
       <c r="L9" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="M9" t="b">
         <v>1</v>
@@ -3197,34 +2977,25 @@
       <c r="P9" s="8">
         <v>1</v>
       </c>
-      <c r="Q9" t="b">
-        <v>0</v>
-      </c>
-      <c r="R9" t="b">
-        <v>0</v>
-      </c>
-      <c r="S9" t="b">
-        <v>0</v>
-      </c>
-      <c r="T9" t="s">
-        <v>150</v>
-      </c>
-      <c r="U9" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="Q9" t="s">
+        <v>142</v>
+      </c>
+      <c r="R9" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>208</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="C10" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="D10" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="F10">
         <v>3</v>
@@ -3233,19 +3004,19 @@
         <v>-2</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="I10" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="J10" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="K10" t="b">
         <v>0</v>
       </c>
       <c r="L10" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="M10" t="b">
         <v>1</v>
@@ -3259,34 +3030,25 @@
       <c r="P10" s="8">
         <v>1</v>
       </c>
-      <c r="Q10" t="b">
-        <v>0</v>
-      </c>
-      <c r="R10" t="b">
-        <v>0</v>
-      </c>
-      <c r="S10" t="b">
-        <v>0</v>
-      </c>
-      <c r="T10" t="s">
-        <v>152</v>
-      </c>
-      <c r="U10" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="Q10" t="s">
+        <v>144</v>
+      </c>
+      <c r="R10" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>209</v>
       </c>
       <c r="B11" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="C11" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="D11" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="F11">
         <v>3</v>
@@ -3295,19 +3057,19 @@
         <v>4</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="I11" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="J11" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="K11" t="b">
         <v>0</v>
       </c>
       <c r="L11" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="M11" t="b">
         <v>1</v>
@@ -3321,34 +3083,25 @@
       <c r="P11" s="8">
         <v>2</v>
       </c>
-      <c r="Q11" t="b">
-        <v>0</v>
-      </c>
-      <c r="R11" t="b">
-        <v>0</v>
-      </c>
-      <c r="S11" t="b">
-        <v>0</v>
-      </c>
-      <c r="T11" t="s">
-        <v>153</v>
-      </c>
-      <c r="U11" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="Q11" t="s">
+        <v>145</v>
+      </c>
+      <c r="R11" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>210</v>
       </c>
       <c r="B12" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="C12" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="D12" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="F12">
         <v>3</v>
@@ -3357,19 +3110,19 @@
         <v>4</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="I12" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="J12" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="K12" t="b">
         <v>0</v>
       </c>
       <c r="L12" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="M12" t="b">
         <v>1</v>
@@ -3383,34 +3136,25 @@
       <c r="P12" s="8">
         <v>2</v>
       </c>
-      <c r="Q12" t="b">
-        <v>0</v>
-      </c>
-      <c r="R12" t="b">
-        <v>0</v>
-      </c>
-      <c r="S12" t="b">
-        <v>0</v>
-      </c>
-      <c r="T12" t="s">
-        <v>154</v>
-      </c>
-      <c r="U12" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="Q12" t="s">
+        <v>146</v>
+      </c>
+      <c r="R12" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>211</v>
       </c>
       <c r="B13" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="C13" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="D13" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="F13">
         <v>3</v>
@@ -3419,19 +3163,19 @@
         <v>4</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="I13" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="J13" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="K13" t="b">
         <v>0</v>
       </c>
       <c r="L13" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="M13" t="b">
         <v>1</v>
@@ -3445,34 +3189,25 @@
       <c r="P13" s="8">
         <v>2</v>
       </c>
-      <c r="Q13" t="b">
-        <v>0</v>
-      </c>
-      <c r="R13" t="b">
-        <v>0</v>
-      </c>
-      <c r="S13" t="b">
-        <v>0</v>
-      </c>
-      <c r="T13" t="s">
-        <v>156</v>
-      </c>
-      <c r="U13" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="Q13" t="s">
+        <v>148</v>
+      </c>
+      <c r="R13" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>212</v>
       </c>
       <c r="B14" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="C14" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="D14" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="F14">
         <v>3</v>
@@ -3481,19 +3216,19 @@
         <v>-3</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="I14" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="J14" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="K14" t="b">
         <v>0</v>
       </c>
       <c r="L14" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="M14" t="b">
         <v>1</v>
@@ -3507,55 +3242,46 @@
       <c r="P14" s="8">
         <v>2</v>
       </c>
-      <c r="Q14" t="b">
-        <v>0</v>
-      </c>
-      <c r="R14" t="b">
-        <v>0</v>
-      </c>
-      <c r="S14" t="b">
-        <v>0</v>
-      </c>
-      <c r="T14" t="s">
-        <v>155</v>
-      </c>
-      <c r="U14" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="Q14" t="s">
+        <v>147</v>
+      </c>
+      <c r="R14" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>213</v>
       </c>
       <c r="B15" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="C15" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="D15" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="F15">
         <v>3</v>
       </c>
       <c r="G15" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="H15" s="9" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="I15">
         <v>1</v>
       </c>
       <c r="J15" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="K15" t="b">
         <v>0</v>
       </c>
       <c r="L15" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="M15" t="b">
         <v>1</v>
@@ -3569,55 +3295,46 @@
       <c r="P15" s="8">
         <v>0</v>
       </c>
-      <c r="Q15" t="b">
-        <v>0</v>
-      </c>
-      <c r="R15" t="b">
-        <v>0</v>
-      </c>
-      <c r="S15" t="b">
-        <v>0</v>
-      </c>
-      <c r="T15" t="s">
-        <v>166</v>
-      </c>
-      <c r="U15" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="Q15" t="s">
+        <v>158</v>
+      </c>
+      <c r="R15" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>214</v>
       </c>
       <c r="B16" t="s">
-        <v>158</v>
-      </c>
-      <c r="C16" s="11" t="s">
-        <v>159</v>
+        <v>150</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>151</v>
       </c>
       <c r="D16" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="F16">
         <v>3</v>
       </c>
       <c r="G16" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="H16" s="9" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="I16">
         <v>2</v>
       </c>
       <c r="J16" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="K16" t="b">
         <v>0</v>
       </c>
       <c r="L16" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="M16" t="b">
         <v>1</v>
@@ -3631,55 +3348,46 @@
       <c r="P16" s="8">
         <v>2</v>
       </c>
-      <c r="Q16" t="b">
-        <v>0</v>
-      </c>
-      <c r="R16" t="b">
-        <v>0</v>
-      </c>
-      <c r="S16" t="b">
-        <v>0</v>
-      </c>
-      <c r="T16" t="s">
-        <v>164</v>
-      </c>
-      <c r="U16" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="Q16" t="s">
+        <v>156</v>
+      </c>
+      <c r="R16" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>215</v>
       </c>
       <c r="B17" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="C17" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="D17" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="F17">
         <v>3</v>
       </c>
       <c r="G17" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="H17" s="9" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="I17">
         <v>4</v>
       </c>
       <c r="J17" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="K17" t="b">
         <v>0</v>
       </c>
       <c r="L17" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="M17" t="b">
         <v>1</v>
@@ -3693,46 +3401,37 @@
       <c r="P17" s="8">
         <v>3</v>
       </c>
-      <c r="Q17" t="b">
-        <v>0</v>
-      </c>
-      <c r="R17" t="b">
-        <v>0</v>
-      </c>
-      <c r="S17" t="b">
-        <v>0</v>
-      </c>
-      <c r="T17" t="s">
-        <v>165</v>
-      </c>
-      <c r="U17" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="Q17" t="s">
+        <v>157</v>
+      </c>
+      <c r="R17" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>216</v>
       </c>
       <c r="B18" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="C18" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="D18" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="F18">
         <v>3</v>
       </c>
       <c r="G18" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="H18" s="9" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="I18" s="7" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="J18">
         <v>3</v>
@@ -3741,7 +3440,7 @@
         <v>0</v>
       </c>
       <c r="L18" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="M18" t="b">
         <v>1</v>
@@ -3755,20 +3454,11 @@
       <c r="P18" s="8">
         <v>4</v>
       </c>
-      <c r="Q18" t="b">
-        <v>0</v>
-      </c>
-      <c r="R18" t="b">
-        <v>0</v>
-      </c>
-      <c r="S18" t="b">
-        <v>0</v>
-      </c>
-      <c r="T18" t="s">
-        <v>175</v>
-      </c>
-      <c r="U18" t="s">
-        <v>132</v>
+      <c r="Q18" t="s">
+        <v>167</v>
+      </c>
+      <c r="R18" t="s">
+        <v>124</v>
       </c>
     </row>
   </sheetData>
@@ -3780,22 +3470,22 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E23AF604-FC28-4226-8DE7-02ED7FA4FC89}">
-  <dimension ref="A2:V9"/>
+  <dimension ref="A2:S9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="Q1" sqref="Q1:S1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="20.3984375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.09765625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="79.19921875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="79.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>6</v>
@@ -3810,10 +3500,10 @@
         <v>8</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>9</v>
@@ -3822,7 +3512,7 @@
         <v>10</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="K2" s="1" t="s">
         <v>14</v>
@@ -3837,42 +3527,33 @@
         <v>17</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="R2" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="S2" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="S2" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="T2" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="U2" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="V2" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.4">
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>231</v>
       </c>
       <c r="B3" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="C3" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="D3" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="F3">
         <v>3</v>
@@ -3881,13 +3562,13 @@
         <v>4</v>
       </c>
       <c r="H3" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="I3" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="J3" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="K3" t="b">
         <v>1</v>
@@ -3896,10 +3577,10 @@
         <v>3</v>
       </c>
       <c r="M3" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="N3" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="O3" t="b">
         <v>1</v>
@@ -3907,37 +3588,28 @@
       <c r="P3" s="8">
         <v>1</v>
       </c>
-      <c r="Q3" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="R3" s="10">
-        <v>0.05</v>
-      </c>
-      <c r="S3" s="10">
-        <v>0.1</v>
-      </c>
-      <c r="T3" t="s">
+      <c r="Q3" t="s">
+        <v>186</v>
+      </c>
+      <c r="R3" t="s">
+        <v>180</v>
+      </c>
+      <c r="S3" t="s">
         <v>194</v>
       </c>
-      <c r="U3" t="s">
-        <v>188</v>
-      </c>
-      <c r="V3" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.4">
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>232</v>
       </c>
       <c r="B4" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="C4" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="D4" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="F4">
         <v>3</v>
@@ -3946,13 +3618,13 @@
         <v>8</v>
       </c>
       <c r="H4" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="I4" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="J4" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="K4" t="b">
         <v>1</v>
@@ -3961,10 +3633,10 @@
         <v>6</v>
       </c>
       <c r="M4" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="N4" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="O4" t="b">
         <v>1</v>
@@ -3972,52 +3644,43 @@
       <c r="P4" s="8">
         <v>2</v>
       </c>
-      <c r="Q4" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="R4" s="10">
-        <v>0.05</v>
-      </c>
-      <c r="S4" s="10">
-        <v>0.1</v>
-      </c>
-      <c r="T4" t="s">
-        <v>194</v>
-      </c>
-      <c r="U4" t="s">
-        <v>188</v>
-      </c>
-      <c r="V4" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="Q4" t="s">
+        <v>186</v>
+      </c>
+      <c r="R4" t="s">
+        <v>180</v>
+      </c>
+      <c r="S4" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>233</v>
       </c>
       <c r="B5" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="C5" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="D5" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="F5">
         <v>3</v>
       </c>
       <c r="G5" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="H5">
         <v>1</v>
       </c>
       <c r="I5" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="J5" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="K5" t="b">
         <v>1</v>
@@ -4026,63 +3689,54 @@
         <v>3</v>
       </c>
       <c r="M5" t="s">
+        <v>184</v>
+      </c>
+      <c r="N5" t="s">
+        <v>188</v>
+      </c>
+      <c r="O5" t="b">
+        <v>1</v>
+      </c>
+      <c r="P5" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>185</v>
+      </c>
+      <c r="R5" t="s">
+        <v>180</v>
+      </c>
+      <c r="S5" t="s">
         <v>192</v>
       </c>
-      <c r="N5" t="s">
-        <v>196</v>
-      </c>
-      <c r="O5" t="b">
-        <v>1</v>
-      </c>
-      <c r="P5" s="8">
-        <v>1</v>
-      </c>
-      <c r="Q5" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="R5" s="10">
-        <v>0.05</v>
-      </c>
-      <c r="S5" s="10">
-        <v>0.1</v>
-      </c>
-      <c r="T5" t="s">
-        <v>193</v>
-      </c>
-      <c r="U5" t="s">
-        <v>188</v>
-      </c>
-      <c r="V5" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.4">
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>234</v>
       </c>
       <c r="B6" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="C6" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="D6" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="F6">
         <v>3</v>
       </c>
       <c r="G6" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="H6">
         <v>2</v>
       </c>
       <c r="I6" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="J6" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="K6" t="b">
         <v>1</v>
@@ -4091,10 +3745,10 @@
         <v>6</v>
       </c>
       <c r="M6" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="N6" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="O6" t="b">
         <v>1</v>
@@ -4102,52 +3756,43 @@
       <c r="P6" s="8">
         <v>2</v>
       </c>
-      <c r="Q6" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="R6" s="10">
-        <v>0.05</v>
-      </c>
-      <c r="S6" s="10">
-        <v>0.1</v>
-      </c>
-      <c r="T6" t="s">
-        <v>193</v>
-      </c>
-      <c r="U6" t="s">
-        <v>188</v>
-      </c>
-      <c r="V6" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="Q6" t="s">
+        <v>185</v>
+      </c>
+      <c r="R6" t="s">
+        <v>180</v>
+      </c>
+      <c r="S6" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>235</v>
       </c>
       <c r="B7" t="s">
+        <v>173</v>
+      </c>
+      <c r="C7" t="s">
+        <v>199</v>
+      </c>
+      <c r="D7" t="s">
         <v>181</v>
-      </c>
-      <c r="C7" t="s">
-        <v>207</v>
-      </c>
-      <c r="D7" t="s">
-        <v>189</v>
       </c>
       <c r="F7">
         <v>3</v>
       </c>
       <c r="G7" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="H7" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="I7">
         <v>1</v>
       </c>
       <c r="J7" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="K7" t="b">
         <v>1</v>
@@ -4156,10 +3801,10 @@
         <v>3</v>
       </c>
       <c r="M7" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="N7" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="O7" t="b">
         <v>1</v>
@@ -4167,49 +3812,40 @@
       <c r="P7" s="8">
         <v>1</v>
       </c>
-      <c r="Q7" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="R7" s="10">
-        <v>0.05</v>
-      </c>
-      <c r="S7" s="10">
-        <v>0.1</v>
-      </c>
-      <c r="T7" t="s">
-        <v>193</v>
-      </c>
-      <c r="U7" t="s">
-        <v>188</v>
-      </c>
-      <c r="V7" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="Q7" t="s">
+        <v>185</v>
+      </c>
+      <c r="R7" t="s">
+        <v>180</v>
+      </c>
+      <c r="S7" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>236</v>
       </c>
       <c r="B8" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="C8" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="D8" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="F8">
         <v>3</v>
       </c>
       <c r="G8" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="H8" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="I8" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="J8">
         <v>3</v>
@@ -4221,10 +3857,10 @@
         <v>5</v>
       </c>
       <c r="M8" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="N8" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="O8" t="b">
         <v>1</v>
@@ -4232,52 +3868,43 @@
       <c r="P8" s="8">
         <v>2</v>
       </c>
-      <c r="Q8" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="R8" s="10">
-        <v>0.05</v>
-      </c>
-      <c r="S8" s="10">
-        <v>0.1</v>
-      </c>
-      <c r="T8" t="s">
-        <v>193</v>
-      </c>
-      <c r="U8" t="s">
-        <v>188</v>
-      </c>
-      <c r="V8" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="Q8" t="s">
+        <v>185</v>
+      </c>
+      <c r="R8" t="s">
+        <v>180</v>
+      </c>
+      <c r="S8" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>237</v>
       </c>
       <c r="B9" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="C9" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="D9" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="F9">
         <v>3</v>
       </c>
       <c r="G9" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="H9" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="I9" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="J9" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="K9" t="b">
         <v>1</v>
@@ -4286,10 +3913,10 @@
         <v>3</v>
       </c>
       <c r="M9" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="N9" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="O9" t="b">
         <v>1</v>
@@ -4297,23 +3924,14 @@
       <c r="P9" s="8">
         <v>1</v>
       </c>
-      <c r="Q9" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="R9" s="10">
-        <v>0.05</v>
-      </c>
-      <c r="S9" s="10">
-        <v>0.1</v>
-      </c>
-      <c r="T9" t="s">
-        <v>188</v>
-      </c>
-      <c r="U9" t="s">
-        <v>195</v>
-      </c>
-      <c r="V9" t="s">
-        <v>211</v>
+      <c r="Q9" t="s">
+        <v>180</v>
+      </c>
+      <c r="R9" t="s">
+        <v>187</v>
+      </c>
+      <c r="S9" t="s">
+        <v>203</v>
       </c>
     </row>
   </sheetData>
@@ -4325,27 +3943,25 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62534935-8F4B-408B-A392-A1783AEAD5F6}">
-  <dimension ref="A2:S8"/>
+  <dimension ref="A2:P8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N14" sqref="N14"/>
+      <selection activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="13.69921875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.8984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.5" customWidth="1"/>
     <col min="11" max="11" width="10" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="10.796875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.3984375" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="109.59765625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="109.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>6</v>
@@ -4360,16 +3976,16 @@
         <v>8</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>9</v>
@@ -4378,60 +3994,51 @@
         <v>10</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q2" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="R2" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="S2" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.4">
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>261</v>
       </c>
       <c r="B3" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="C3" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="D3" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="F3" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="G3" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="H3" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="I3" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="J3">
         <v>4</v>
       </c>
       <c r="K3" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="L3" s="8">
         <v>10</v>
@@ -4445,49 +4052,40 @@
       <c r="O3">
         <v>3</v>
       </c>
-      <c r="P3" s="10">
-        <v>0.05</v>
-      </c>
-      <c r="Q3" s="10">
-        <v>0.1</v>
-      </c>
-      <c r="R3" s="10">
-        <v>0.2</v>
-      </c>
-      <c r="S3" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="P3" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>262</v>
       </c>
       <c r="B4" t="s">
+        <v>205</v>
+      </c>
+      <c r="C4" t="s">
+        <v>207</v>
+      </c>
+      <c r="D4" t="s">
+        <v>210</v>
+      </c>
+      <c r="F4" t="s">
         <v>213</v>
       </c>
-      <c r="C4" t="s">
-        <v>215</v>
-      </c>
-      <c r="D4" t="s">
-        <v>218</v>
-      </c>
-      <c r="F4" t="s">
-        <v>221</v>
-      </c>
       <c r="G4" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="H4">
         <v>10</v>
       </c>
       <c r="I4" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="J4" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="K4" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="L4" s="8">
         <v>10</v>
@@ -4496,54 +4094,45 @@
         <v>30</v>
       </c>
       <c r="N4" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="O4">
         <v>4</v>
       </c>
-      <c r="P4" s="10">
-        <v>0.05</v>
-      </c>
-      <c r="Q4" s="10">
-        <v>0.1</v>
-      </c>
-      <c r="R4" s="10">
-        <v>0.2</v>
-      </c>
-      <c r="S4" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="P4" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>263</v>
       </c>
       <c r="B5" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="C5" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="D5" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="F5" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="G5">
         <v>4</v>
       </c>
       <c r="H5" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="I5" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="J5" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="K5" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="L5" s="8">
         <v>10</v>
@@ -4557,49 +4146,40 @@
       <c r="O5">
         <v>4</v>
       </c>
-      <c r="P5" s="10">
-        <v>0.05</v>
-      </c>
-      <c r="Q5" s="10">
-        <v>0.1</v>
-      </c>
-      <c r="R5" s="10">
-        <v>0.2</v>
-      </c>
-      <c r="S5" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="P5" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>264</v>
       </c>
       <c r="B6" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="C6" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="D6" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="F6" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="G6" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="H6" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="I6" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="J6">
         <v>-3</v>
       </c>
       <c r="K6" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="L6" s="8">
         <v>10</v>
@@ -4613,46 +4193,37 @@
       <c r="O6">
         <v>4</v>
       </c>
-      <c r="P6" s="10">
-        <v>0.05</v>
-      </c>
-      <c r="Q6" s="10">
-        <v>0.1</v>
-      </c>
-      <c r="R6" s="10">
-        <v>0.2</v>
-      </c>
-      <c r="S6" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="P6" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>265</v>
       </c>
       <c r="B7" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="C7" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="D7" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="F7" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="G7" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="H7" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="I7" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="J7" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="K7">
         <v>4</v>
@@ -4669,49 +4240,40 @@
       <c r="O7">
         <v>3</v>
       </c>
-      <c r="P7" s="10">
-        <v>0.05</v>
-      </c>
-      <c r="Q7" s="10">
-        <v>0.1</v>
-      </c>
-      <c r="R7" s="10">
-        <v>0.2</v>
-      </c>
-      <c r="S7" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="P7" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>266</v>
       </c>
       <c r="B8" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="C8" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="D8" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="F8" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="G8" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="H8" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="I8" s="8">
         <v>20</v>
       </c>
       <c r="J8" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="K8" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="L8" s="8">
         <v>10</v>
@@ -4720,22 +4282,13 @@
         <v>20</v>
       </c>
       <c r="N8" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="O8">
         <v>4</v>
       </c>
-      <c r="P8" s="10">
-        <v>0.05</v>
-      </c>
-      <c r="Q8" s="10">
-        <v>0.1</v>
-      </c>
-      <c r="R8" s="10">
-        <v>0.2</v>
-      </c>
-      <c r="S8" t="s">
-        <v>241</v>
+      <c r="P8" t="s">
+        <v>233</v>
       </c>
     </row>
   </sheetData>

--- a/데이터테이블/아이템 데이터 테이블.xlsx
+++ b/데이터테이블/아이템 데이터 테이블.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1a6f263b7920f829/바탕 화면/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\revoltday\RevoltDay\데이터테이블\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6" documentId="8_{0A1DADDE-AAFA-46CC-8DA1-0CE98A060D26}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{7C31D832-FAD4-4C65-8A0B-E0E22E33024C}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99F5E0DB-C1F8-40DD-B5B0-AAD9A8581C57}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8910" activeTab="1" xr2:uid="{8059BBFD-96BC-42E1-A9DD-996BAD7E44E4}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8916" activeTab="3" xr2:uid="{8059BBFD-96BC-42E1-A9DD-996BAD7E44E4}"/>
   </bookViews>
   <sheets>
     <sheet name="문서 정보" sheetId="3" r:id="rId1"/>
@@ -721,18 +721,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>아드레날린</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>에너지 드링크</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>담배</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1회용 고급 택시 티켓</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -824,18 +812,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>energydrink</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>adrenalin</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>smoke</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>taxiticket</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -985,6 +961,30 @@
   </si>
   <si>
     <t>장빞 아이템은 드랍되지 않고 오로지 비밀상점에서만 구입할 수 있다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>슈퍼 나노 체리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>나노 체리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>나노 민트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nanomint</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nanocherry</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>supernanocherry</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1452,12 +1452,12 @@
       <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="5" max="5" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.59765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="3:11" x14ac:dyDescent="0.4">
       <c r="C7" s="11" t="s">
         <v>78</v>
       </c>
@@ -1470,7 +1470,7 @@
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
     </row>
-    <row r="8" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="3:11" x14ac:dyDescent="0.4">
       <c r="C8" s="12"/>
       <c r="D8" s="12"/>
       <c r="E8" s="12"/>
@@ -1481,7 +1481,7 @@
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
     </row>
-    <row r="9" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="3:11" x14ac:dyDescent="0.4">
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
@@ -1492,7 +1492,7 @@
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
     </row>
-    <row r="10" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="3:11" x14ac:dyDescent="0.4">
       <c r="C10" s="3" t="s">
         <v>79</v>
       </c>
@@ -1513,7 +1513,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="11" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="3:11" x14ac:dyDescent="0.4">
       <c r="C11" s="3">
         <v>1</v>
       </c>
@@ -1532,7 +1532,7 @@
       <c r="J11" s="13"/>
       <c r="K11" s="3"/>
     </row>
-    <row r="12" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="3:11" x14ac:dyDescent="0.4">
       <c r="C12" s="4">
         <v>101</v>
       </c>
@@ -1553,7 +1553,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="13" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="3:11" x14ac:dyDescent="0.4">
       <c r="C13" s="5">
         <v>201</v>
       </c>
@@ -1570,7 +1570,7 @@
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
     </row>
-    <row r="14" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="3:11" x14ac:dyDescent="0.4">
       <c r="C14" s="3">
         <v>301</v>
       </c>
@@ -1587,7 +1587,7 @@
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
     </row>
-    <row r="15" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="3:11" x14ac:dyDescent="0.4">
       <c r="C15" s="6">
         <v>401</v>
       </c>
@@ -1604,7 +1604,7 @@
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
     </row>
-    <row r="16" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="3:11" x14ac:dyDescent="0.4">
       <c r="C16" s="3">
         <v>501</v>
       </c>
@@ -1621,7 +1621,7 @@
       <c r="J16" s="2"/>
       <c r="K16" s="2"/>
     </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:11" x14ac:dyDescent="0.4">
       <c r="C17" s="3">
         <v>601</v>
       </c>
@@ -1638,7 +1638,7 @@
       <c r="J17" s="2"/>
       <c r="K17" s="2"/>
     </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:11" x14ac:dyDescent="0.4">
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
@@ -1665,25 +1665,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B36C15E-DDD8-44F4-AA27-EAACC0E62D51}">
   <dimension ref="B2:I69"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="11.125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="57.375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="22.25" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6.75" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.25" customWidth="1"/>
-    <col min="13" max="13" width="9.25" customWidth="1"/>
+    <col min="2" max="2" width="11.09765625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.3984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="57.3984375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.09765625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.19921875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.69921875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.19921875" customWidth="1"/>
+    <col min="13" max="13" width="9.19921875" customWidth="1"/>
     <col min="14" max="14" width="11" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="27.25" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="27.19921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B2" t="s">
         <v>50</v>
       </c>
@@ -1691,15 +1691,15 @@
         <v>49</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="G2" s="13" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="H2" s="13"/>
       <c r="I2" s="13"/>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.4">
       <c r="F3" s="13" t="s">
         <v>57</v>
       </c>
@@ -1707,7 +1707,7 @@
       <c r="H3" s="13"/>
       <c r="I3" s="13"/>
     </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B5" s="13" t="s">
         <v>0</v>
       </c>
@@ -1715,7 +1715,7 @@
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>
     </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B6" s="13"/>
       <c r="C6" s="13"/>
       <c r="D6" s="13"/>
@@ -1725,12 +1725,12 @@
       </c>
       <c r="I6" s="1"/>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B7" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>4</v>
@@ -1745,7 +1745,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B8" s="1" t="s">
         <v>6</v>
       </c>
@@ -1765,7 +1765,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B9" s="1" t="s">
         <v>18</v>
       </c>
@@ -1785,7 +1785,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B10" s="1" t="s">
         <v>7</v>
       </c>
@@ -1805,7 +1805,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B11" s="1" t="s">
         <v>8</v>
       </c>
@@ -1819,7 +1819,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B12" s="1" t="s">
         <v>19</v>
       </c>
@@ -1833,7 +1833,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1847,7 +1847,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B14" s="1" t="s">
         <v>73</v>
       </c>
@@ -1861,7 +1861,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1875,7 +1875,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B16" s="1" t="s">
         <v>162</v>
       </c>
@@ -1889,7 +1889,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B17" s="1" t="s">
         <v>14</v>
       </c>
@@ -1903,7 +1903,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B18" s="1" t="s">
         <v>15</v>
       </c>
@@ -1917,7 +1917,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B19" s="1" t="s">
         <v>16</v>
       </c>
@@ -1931,7 +1931,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B20" s="1" t="s">
         <v>17</v>
       </c>
@@ -1945,7 +1945,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B21" s="1" t="s">
         <v>31</v>
       </c>
@@ -1959,7 +1959,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B22" s="1" t="s">
         <v>33</v>
       </c>
@@ -1973,7 +1973,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B23" s="1" t="s">
         <v>20</v>
       </c>
@@ -1987,10 +1987,10 @@
         <v>35</v>
       </c>
       <c r="G23" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.3">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B24" s="1" t="s">
         <v>36</v>
       </c>
@@ -2004,7 +2004,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B28" s="13" t="s">
         <v>1</v>
       </c>
@@ -2012,18 +2012,18 @@
       <c r="D28" s="13"/>
       <c r="E28" s="13"/>
     </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B29" s="13"/>
       <c r="C29" s="13"/>
       <c r="D29" s="13"/>
       <c r="E29" s="13"/>
     </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B30" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>4</v>
@@ -2032,7 +2032,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B31" s="1" t="s">
         <v>6</v>
       </c>
@@ -2046,7 +2046,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B32" s="1" t="s">
         <v>18</v>
       </c>
@@ -2060,7 +2060,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B33" s="1" t="s">
         <v>7</v>
       </c>
@@ -2074,7 +2074,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B34" s="1" t="s">
         <v>8</v>
       </c>
@@ -2088,7 +2088,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B35" s="1" t="s">
         <v>19</v>
       </c>
@@ -2102,21 +2102,21 @@
         <v>38</v>
       </c>
     </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B36" s="1" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>164</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="37" spans="2:5" x14ac:dyDescent="0.3">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="37" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B37" s="1" t="s">
         <v>9</v>
       </c>
@@ -2130,7 +2130,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="38" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B38" s="1" t="s">
         <v>10</v>
       </c>
@@ -2144,7 +2144,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="39" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B39" s="1" t="s">
         <v>162</v>
       </c>
@@ -2158,7 +2158,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="40" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B40" s="1" t="s">
         <v>14</v>
       </c>
@@ -2172,7 +2172,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="41" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B41" s="1" t="s">
         <v>15</v>
       </c>
@@ -2186,7 +2186,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="42" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B42" s="1" t="s">
         <v>16</v>
       </c>
@@ -2200,7 +2200,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="43" spans="2:5" ht="17.45" x14ac:dyDescent="0.4">
+    <row r="43" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B43" s="1" t="s">
         <v>17</v>
       </c>
@@ -2214,7 +2214,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="44" spans="2:5" ht="17.45" x14ac:dyDescent="0.4">
+    <row r="44" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B44" s="1" t="s">
         <v>31</v>
       </c>
@@ -2228,7 +2228,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="45" spans="2:5" ht="17.45" x14ac:dyDescent="0.4">
+    <row r="45" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B45" s="1" t="s">
         <v>33</v>
       </c>
@@ -2242,7 +2242,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="46" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B46" s="1" t="s">
         <v>40</v>
       </c>
@@ -2256,7 +2256,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="47" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B47" s="1" t="s">
         <v>45</v>
       </c>
@@ -2270,7 +2270,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="48" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B48" s="1" t="s">
         <v>20</v>
       </c>
@@ -2284,7 +2284,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="52" spans="2:5" ht="17.45" x14ac:dyDescent="0.4">
+    <row r="52" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B52" s="13" t="s">
         <v>2</v>
       </c>
@@ -2292,18 +2292,18 @@
       <c r="D52" s="13"/>
       <c r="E52" s="13"/>
     </row>
-    <row r="53" spans="2:5" ht="17.45" x14ac:dyDescent="0.4">
+    <row r="53" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B53" s="13"/>
       <c r="C53" s="13"/>
       <c r="D53" s="13"/>
       <c r="E53" s="13"/>
     </row>
-    <row r="54" spans="2:5" ht="17.45" x14ac:dyDescent="0.4">
+    <row r="54" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B54" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="D54" s="1" t="s">
         <v>4</v>
@@ -2312,7 +2312,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="55" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B55" s="1" t="s">
         <v>6</v>
       </c>
@@ -2326,7 +2326,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="56" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B56" s="1" t="s">
         <v>18</v>
       </c>
@@ -2340,7 +2340,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="57" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B57" s="1" t="s">
         <v>7</v>
       </c>
@@ -2351,10 +2351,10 @@
         <v>59</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="58" spans="2:5" x14ac:dyDescent="0.3">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="58" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B58" s="1" t="s">
         <v>8</v>
       </c>
@@ -2368,7 +2368,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="59" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B59" s="1" t="s">
         <v>51</v>
       </c>
@@ -2382,9 +2382,9 @@
         <v>61</v>
       </c>
     </row>
-    <row r="60" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B60" s="1" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>12</v>
@@ -2393,12 +2393,12 @@
         <v>59</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="61" spans="2:5" x14ac:dyDescent="0.3">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="61" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B61" s="1" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>12</v>
@@ -2407,12 +2407,12 @@
         <v>59</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="62" spans="2:5" x14ac:dyDescent="0.3">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="62" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B62" s="1" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="C62" s="1" t="s">
         <v>12</v>
@@ -2421,10 +2421,10 @@
         <v>59</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="63" spans="2:5" x14ac:dyDescent="0.3">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="63" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B63" s="1" t="s">
         <v>9</v>
       </c>
@@ -2438,7 +2438,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="64" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B64" s="1" t="s">
         <v>10</v>
       </c>
@@ -2452,7 +2452,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="65" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B65" s="1" t="s">
         <v>47</v>
       </c>
@@ -2466,7 +2466,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="66" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B66" s="1" t="s">
         <v>48</v>
       </c>
@@ -2480,7 +2480,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="67" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B67" s="1" t="s">
         <v>40</v>
       </c>
@@ -2494,7 +2494,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="68" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B68" s="1" t="s">
         <v>24</v>
       </c>
@@ -2505,10 +2505,10 @@
         <v>59</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="69" spans="2:5" x14ac:dyDescent="0.3">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="69" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B69" s="1" t="s">
         <v>20</v>
       </c>
@@ -2544,20 +2544,20 @@
       <selection activeCell="N28" sqref="N28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="13.75" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.69921875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.09765625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.25" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.25" customWidth="1"/>
-    <col min="11" max="12" width="11.375" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="9.625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="50.625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.19921875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.19921875" customWidth="1"/>
+    <col min="11" max="12" width="11.3984375" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="9.59765625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="50.59765625" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="55" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>75</v>
       </c>
@@ -2613,7 +2613,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>201</v>
       </c>
@@ -2666,7 +2666,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>202</v>
       </c>
@@ -2719,7 +2719,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>203</v>
       </c>
@@ -2772,7 +2772,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>204</v>
       </c>
@@ -2825,7 +2825,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>205</v>
       </c>
@@ -2878,7 +2878,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>206</v>
       </c>
@@ -2931,7 +2931,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>207</v>
       </c>
@@ -2984,7 +2984,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>208</v>
       </c>
@@ -3037,7 +3037,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A11">
         <v>209</v>
       </c>
@@ -3090,7 +3090,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A12">
         <v>210</v>
       </c>
@@ -3143,7 +3143,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A13">
         <v>211</v>
       </c>
@@ -3196,7 +3196,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A14">
         <v>212</v>
       </c>
@@ -3249,7 +3249,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A15">
         <v>213</v>
       </c>
@@ -3302,7 +3302,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A16">
         <v>214</v>
       </c>
@@ -3355,7 +3355,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A17">
         <v>215</v>
       </c>
@@ -3408,7 +3408,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A18">
         <v>216</v>
       </c>
@@ -3472,18 +3472,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E23AF604-FC28-4226-8DE7-02ED7FA4FC89}">
   <dimension ref="A2:S9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Q1" sqref="Q1:S1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="20.375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="79.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.3984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.296875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="79.19921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>168</v>
       </c>
@@ -3503,7 +3503,7 @@
         <v>19</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>9</v>
@@ -3542,7 +3542,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>231</v>
       </c>
@@ -3550,10 +3550,10 @@
         <v>169</v>
       </c>
       <c r="C3" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="D3" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="F3">
         <v>3</v>
@@ -3562,13 +3562,13 @@
         <v>4</v>
       </c>
       <c r="H3" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="I3" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="J3" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="K3" t="b">
         <v>1</v>
@@ -3577,10 +3577,10 @@
         <v>3</v>
       </c>
       <c r="M3" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="N3" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="O3" t="b">
         <v>1</v>
@@ -3589,16 +3589,16 @@
         <v>1</v>
       </c>
       <c r="Q3" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="R3" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="S3" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>232</v>
       </c>
@@ -3606,10 +3606,10 @@
         <v>170</v>
       </c>
       <c r="C4" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="D4" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="F4">
         <v>3</v>
@@ -3618,13 +3618,13 @@
         <v>8</v>
       </c>
       <c r="H4" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="I4" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="J4" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="K4" t="b">
         <v>1</v>
@@ -3633,10 +3633,10 @@
         <v>6</v>
       </c>
       <c r="M4" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="N4" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="O4" t="b">
         <v>1</v>
@@ -3645,42 +3645,42 @@
         <v>2</v>
       </c>
       <c r="Q4" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="R4" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="S4" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>233</v>
       </c>
       <c r="B5" t="s">
-        <v>172</v>
+        <v>233</v>
       </c>
       <c r="C5" t="s">
-        <v>197</v>
+        <v>236</v>
       </c>
       <c r="D5" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="F5">
         <v>3</v>
       </c>
       <c r="G5" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="H5">
         <v>1</v>
       </c>
       <c r="I5" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="J5" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="K5" t="b">
         <v>1</v>
@@ -3689,10 +3689,10 @@
         <v>3</v>
       </c>
       <c r="M5" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="N5" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="O5" t="b">
         <v>1</v>
@@ -3701,42 +3701,42 @@
         <v>1</v>
       </c>
       <c r="Q5" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="R5" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="S5" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>234</v>
       </c>
       <c r="B6" t="s">
-        <v>171</v>
+        <v>232</v>
       </c>
       <c r="C6" t="s">
-        <v>198</v>
+        <v>237</v>
       </c>
       <c r="D6" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="F6">
         <v>3</v>
       </c>
       <c r="G6" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="H6">
         <v>2</v>
       </c>
       <c r="I6" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="J6" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="K6" t="b">
         <v>1</v>
@@ -3745,10 +3745,10 @@
         <v>6</v>
       </c>
       <c r="M6" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="N6" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="O6" t="b">
         <v>1</v>
@@ -3757,42 +3757,42 @@
         <v>2</v>
       </c>
       <c r="Q6" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="R6" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="S6" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>235</v>
       </c>
       <c r="B7" t="s">
-        <v>173</v>
+        <v>234</v>
       </c>
       <c r="C7" t="s">
-        <v>199</v>
+        <v>235</v>
       </c>
       <c r="D7" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="F7">
         <v>3</v>
       </c>
       <c r="G7" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="H7" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="I7">
         <v>1</v>
       </c>
       <c r="J7" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="K7" t="b">
         <v>1</v>
@@ -3801,51 +3801,51 @@
         <v>3</v>
       </c>
       <c r="M7" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="N7" t="s">
+        <v>185</v>
+      </c>
+      <c r="O7" t="b">
+        <v>1</v>
+      </c>
+      <c r="P7" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>182</v>
+      </c>
+      <c r="R7" t="s">
+        <v>177</v>
+      </c>
+      <c r="S7" t="s">
         <v>188</v>
       </c>
-      <c r="O7" t="b">
-        <v>1</v>
-      </c>
-      <c r="P7" s="8">
-        <v>1</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>185</v>
-      </c>
-      <c r="R7" t="s">
-        <v>180</v>
-      </c>
-      <c r="S7" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>236</v>
       </c>
       <c r="B8" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="C8" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="D8" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="F8">
         <v>3</v>
       </c>
       <c r="G8" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="H8" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="I8" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="J8">
         <v>3</v>
@@ -3857,10 +3857,10 @@
         <v>5</v>
       </c>
       <c r="M8" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="N8" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="O8" t="b">
         <v>1</v>
@@ -3869,42 +3869,42 @@
         <v>2</v>
       </c>
       <c r="Q8" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="R8" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="S8" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>237</v>
       </c>
       <c r="B9" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="C9" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="D9" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="F9">
         <v>3</v>
       </c>
       <c r="G9" t="s">
+        <v>177</v>
+      </c>
+      <c r="H9" t="s">
+        <v>177</v>
+      </c>
+      <c r="I9" t="s">
+        <v>185</v>
+      </c>
+      <c r="J9" t="s">
         <v>180</v>
-      </c>
-      <c r="H9" t="s">
-        <v>180</v>
-      </c>
-      <c r="I9" t="s">
-        <v>188</v>
-      </c>
-      <c r="J9" t="s">
-        <v>183</v>
       </c>
       <c r="K9" t="b">
         <v>1</v>
@@ -3913,25 +3913,25 @@
         <v>3</v>
       </c>
       <c r="M9" t="s">
+        <v>181</v>
+      </c>
+      <c r="N9" t="s">
+        <v>185</v>
+      </c>
+      <c r="O9" t="b">
+        <v>1</v>
+      </c>
+      <c r="P9" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>177</v>
+      </c>
+      <c r="R9" t="s">
         <v>184</v>
       </c>
-      <c r="N9" t="s">
-        <v>188</v>
-      </c>
-      <c r="O9" t="b">
-        <v>1</v>
-      </c>
-      <c r="P9" s="8">
-        <v>1</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>180</v>
-      </c>
-      <c r="R9" t="s">
-        <v>187</v>
-      </c>
       <c r="S9" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
     </row>
   </sheetData>
@@ -3949,19 +3949,19 @@
       <selection activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="13.75" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.69921875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.8984375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.5" customWidth="1"/>
     <col min="11" max="11" width="10" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="109.625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="109.59765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>6</v>
@@ -3979,13 +3979,13 @@
         <v>51</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>9</v>
@@ -4009,36 +4009,36 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>261</v>
       </c>
       <c r="B3" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="C3" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="D3" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="F3" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="G3" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="H3" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="I3" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="J3">
         <v>4</v>
       </c>
       <c r="K3" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="L3" s="8">
         <v>10</v>
@@ -4053,39 +4053,39 @@
         <v>3</v>
       </c>
       <c r="P3" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>262</v>
       </c>
       <c r="B4" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="C4" t="s">
+        <v>201</v>
+      </c>
+      <c r="D4" t="s">
+        <v>204</v>
+      </c>
+      <c r="F4" t="s">
         <v>207</v>
       </c>
-      <c r="D4" t="s">
-        <v>210</v>
-      </c>
-      <c r="F4" t="s">
-        <v>213</v>
-      </c>
       <c r="G4" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="H4">
         <v>10</v>
       </c>
       <c r="I4" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="J4" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="K4" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="L4" s="8">
         <v>10</v>
@@ -4094,45 +4094,45 @@
         <v>30</v>
       </c>
       <c r="N4" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="O4">
         <v>4</v>
       </c>
       <c r="P4" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>263</v>
       </c>
       <c r="B5" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="C5" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="D5" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="F5" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="G5">
         <v>4</v>
       </c>
       <c r="H5" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="I5" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="J5" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="K5" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="L5" s="8">
         <v>10</v>
@@ -4147,39 +4147,39 @@
         <v>4</v>
       </c>
       <c r="P5" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>264</v>
       </c>
       <c r="B6" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="C6" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="D6" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="F6" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="G6" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="H6" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="I6" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="J6">
         <v>-3</v>
       </c>
       <c r="K6" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="L6" s="8">
         <v>10</v>
@@ -4194,36 +4194,36 @@
         <v>4</v>
       </c>
       <c r="P6" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>265</v>
       </c>
       <c r="B7" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="C7" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="D7" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="F7" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="G7" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="H7" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="I7" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="J7" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="K7">
         <v>4</v>
@@ -4241,39 +4241,39 @@
         <v>3</v>
       </c>
       <c r="P7" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>266</v>
       </c>
       <c r="B8" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="C8" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="D8" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="F8" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="G8" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="H8" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="I8" s="8">
         <v>20</v>
       </c>
       <c r="J8" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="K8" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="L8" s="8">
         <v>10</v>
@@ -4282,13 +4282,13 @@
         <v>20</v>
       </c>
       <c r="N8" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="O8">
         <v>4</v>
       </c>
       <c r="P8" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
     </row>
   </sheetData>

--- a/데이터테이블/아이템 데이터 테이블.xlsx
+++ b/데이터테이블/아이템 데이터 테이블.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\revoltday\RevoltDay\데이터테이블\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99F5E0DB-C1F8-40DD-B5B0-AAD9A8581C57}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F696CF21-E191-4477-8BE8-83522C7BAA2F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8916" activeTab="3" xr2:uid="{8059BBFD-96BC-42E1-A9DD-996BAD7E44E4}"/>
   </bookViews>
@@ -784,26 +784,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>투입 시 반사능력이 빨라진다. 본래 일반인에겐 판매 금지물품 1턴 동안 격투 2 올려준다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>생각이 나지 않을 땐 담배에 불을 붙이는게 좋다. 1턴동안 추리 1 올려준다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>고 타우린 함량으로 몸의 활력을 되찾아준다. 1턴동안 격투 1 올려준다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>발전된 의학 기술인해 상처를 매우 빠르게 회복할 수 있다. 체력 8을 회복 시켜준다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>복용하면 빠르게 고통이 사라진다. 체력 4를 회복한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>analgesic</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -985,6 +965,26 @@
   </si>
   <si>
     <t>supernanocherry</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>체리맛 캡슐. 1턴동안 격투 1 올려준다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고타우린 함량 체리맛 캡슐, 차세대 붉은 황소로 각광받는다. 1턴 동안 격투 2 올려준다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>흡연자들도 담배 대신 씹을 정도로 박하향이 강한 캡슐, 1턴동안 추리 1 올려준다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>복용하면 빠르게 고통이 사라진다. 체력 5를 회복한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>발전된 의학 기술인해 상처를 매우 빠르게 회복할 수 있다. 체력 10을 회복 시켜준다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1691,10 +1691,10 @@
         <v>49</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="G2" s="13" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="H2" s="13"/>
       <c r="I2" s="13"/>
@@ -1730,7 +1730,7 @@
         <v>3</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>4</v>
@@ -1987,7 +1987,7 @@
         <v>35</v>
       </c>
       <c r="G23" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.4">
@@ -2023,7 +2023,7 @@
         <v>3</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>4</v>
@@ -2303,7 +2303,7 @@
         <v>3</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="D54" s="1" t="s">
         <v>4</v>
@@ -2351,7 +2351,7 @@
         <v>59</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
     </row>
     <row r="58" spans="2:5" x14ac:dyDescent="0.4">
@@ -2384,7 +2384,7 @@
     </row>
     <row r="60" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B60" s="1" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>12</v>
@@ -2393,12 +2393,12 @@
         <v>59</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
     </row>
     <row r="61" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B61" s="1" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>12</v>
@@ -2407,12 +2407,12 @@
         <v>59</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
     </row>
     <row r="62" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B62" s="1" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="C62" s="1" t="s">
         <v>12</v>
@@ -2421,7 +2421,7 @@
         <v>59</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
     </row>
     <row r="63" spans="2:5" x14ac:dyDescent="0.4">
@@ -2505,7 +2505,7 @@
         <v>59</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
     </row>
     <row r="69" spans="2:5" x14ac:dyDescent="0.4">
@@ -2540,7 +2540,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E2A1BC4-CB06-4245-B5CC-AAC046658193}">
   <dimension ref="A2:R18"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
+    <sheetView topLeftCell="E1" workbookViewId="0">
       <selection activeCell="N28" sqref="N28"/>
     </sheetView>
   </sheetViews>
@@ -3472,8 +3472,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E23AF604-FC28-4226-8DE7-02ED7FA4FC89}">
   <dimension ref="A2:S9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="S5" sqref="S5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -3550,7 +3550,7 @@
         <v>169</v>
       </c>
       <c r="C3" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="D3" t="s">
         <v>172</v>
@@ -3595,7 +3595,7 @@
         <v>177</v>
       </c>
       <c r="S3" t="s">
-        <v>191</v>
+        <v>236</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.4">
@@ -3606,7 +3606,7 @@
         <v>170</v>
       </c>
       <c r="C4" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="D4" t="s">
         <v>172</v>
@@ -3651,7 +3651,7 @@
         <v>177</v>
       </c>
       <c r="S4" t="s">
-        <v>190</v>
+        <v>237</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.4">
@@ -3659,10 +3659,10 @@
         <v>233</v>
       </c>
       <c r="B5" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="C5" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="D5" t="s">
         <v>178</v>
@@ -3707,7 +3707,7 @@
         <v>177</v>
       </c>
       <c r="S5" t="s">
-        <v>189</v>
+        <v>233</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.4">
@@ -3715,10 +3715,10 @@
         <v>234</v>
       </c>
       <c r="B6" t="s">
+        <v>227</v>
+      </c>
+      <c r="C6" t="s">
         <v>232</v>
-      </c>
-      <c r="C6" t="s">
-        <v>237</v>
       </c>
       <c r="D6" t="s">
         <v>178</v>
@@ -3763,7 +3763,7 @@
         <v>177</v>
       </c>
       <c r="S6" t="s">
-        <v>187</v>
+        <v>234</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.4">
@@ -3771,10 +3771,10 @@
         <v>235</v>
       </c>
       <c r="B7" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="C7" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="D7" t="s">
         <v>178</v>
@@ -3819,7 +3819,7 @@
         <v>177</v>
       </c>
       <c r="S7" t="s">
-        <v>188</v>
+        <v>235</v>
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.4">
@@ -3830,7 +3830,7 @@
         <v>171</v>
       </c>
       <c r="C8" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="D8" t="s">
         <v>178</v>
@@ -3883,10 +3883,10 @@
         <v>237</v>
       </c>
       <c r="B9" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="C9" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="D9" t="s">
         <v>179</v>
@@ -3931,7 +3931,7 @@
         <v>184</v>
       </c>
       <c r="S9" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
     </row>
   </sheetData>
@@ -3961,7 +3961,7 @@
   <sheetData>
     <row r="2" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>6</v>
@@ -3979,13 +3979,13 @@
         <v>51</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>9</v>
@@ -4014,16 +4014,16 @@
         <v>261</v>
       </c>
       <c r="B3" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="C3" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="D3" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="F3" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="G3" t="s">
         <v>185</v>
@@ -4053,7 +4053,7 @@
         <v>3</v>
       </c>
       <c r="P3" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.4">
@@ -4061,16 +4061,16 @@
         <v>262</v>
       </c>
       <c r="B4" t="s">
+        <v>194</v>
+      </c>
+      <c r="C4" t="s">
+        <v>196</v>
+      </c>
+      <c r="D4" t="s">
         <v>199</v>
       </c>
-      <c r="C4" t="s">
-        <v>201</v>
-      </c>
-      <c r="D4" t="s">
-        <v>204</v>
-      </c>
       <c r="F4" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="G4" t="s">
         <v>185</v>
@@ -4100,7 +4100,7 @@
         <v>4</v>
       </c>
       <c r="P4" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.4">
@@ -4108,16 +4108,16 @@
         <v>263</v>
       </c>
       <c r="B5" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="C5" t="s">
+        <v>197</v>
+      </c>
+      <c r="D5" t="s">
+        <v>199</v>
+      </c>
+      <c r="F5" t="s">
         <v>202</v>
-      </c>
-      <c r="D5" t="s">
-        <v>204</v>
-      </c>
-      <c r="F5" t="s">
-        <v>207</v>
       </c>
       <c r="G5">
         <v>4</v>
@@ -4147,7 +4147,7 @@
         <v>4</v>
       </c>
       <c r="P5" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.4">
@@ -4155,16 +4155,16 @@
         <v>264</v>
       </c>
       <c r="B6" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="C6" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="D6" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="F6" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="G6" t="s">
         <v>185</v>
@@ -4194,7 +4194,7 @@
         <v>4</v>
       </c>
       <c r="P6" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.4">
@@ -4202,16 +4202,16 @@
         <v>265</v>
       </c>
       <c r="B7" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="C7" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="D7" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="F7" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="G7" t="s">
         <v>185</v>
@@ -4241,7 +4241,7 @@
         <v>3</v>
       </c>
       <c r="P7" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.4">
@@ -4249,16 +4249,16 @@
         <v>266</v>
       </c>
       <c r="B8" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="C8" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="D8" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="F8" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="G8" t="s">
         <v>185</v>
@@ -4288,7 +4288,7 @@
         <v>4</v>
       </c>
       <c r="P8" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
     </row>
   </sheetData>

--- a/데이터테이블/아이템 데이터 테이블.xlsx
+++ b/데이터테이블/아이템 데이터 테이블.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\revoltday\RevoltDay\데이터테이블\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F696CF21-E191-4477-8BE8-83522C7BAA2F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F866C93-9023-452C-AEED-4FD328FEAAA0}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8916" activeTab="3" xr2:uid="{8059BBFD-96BC-42E1-A9DD-996BAD7E44E4}"/>
   </bookViews>
@@ -796,10 +796,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>지상철 탑승권</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>railticket</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -985,6 +981,10 @@
   </si>
   <si>
     <t>발전된 의학 기술인해 상처를 매우 빠르게 회복할 수 있다. 체력 10을 회복 시켜준다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>하늘철 탑승권</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1691,10 +1691,10 @@
         <v>49</v>
       </c>
       <c r="F2" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="G2" s="13" t="s">
         <v>224</v>
-      </c>
-      <c r="G2" s="13" t="s">
-        <v>225</v>
       </c>
       <c r="H2" s="13"/>
       <c r="I2" s="13"/>
@@ -1730,7 +1730,7 @@
         <v>3</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>4</v>
@@ -1987,7 +1987,7 @@
         <v>35</v>
       </c>
       <c r="G23" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.4">
@@ -2023,7 +2023,7 @@
         <v>3</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>4</v>
@@ -2303,7 +2303,7 @@
         <v>3</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D54" s="1" t="s">
         <v>4</v>
@@ -2351,7 +2351,7 @@
         <v>59</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="58" spans="2:5" x14ac:dyDescent="0.4">
@@ -2384,7 +2384,7 @@
     </row>
     <row r="60" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B60" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>12</v>
@@ -2393,12 +2393,12 @@
         <v>59</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="61" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B61" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>12</v>
@@ -2407,12 +2407,12 @@
         <v>59</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="62" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B62" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C62" s="1" t="s">
         <v>12</v>
@@ -2421,7 +2421,7 @@
         <v>59</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="63" spans="2:5" x14ac:dyDescent="0.4">
@@ -2505,7 +2505,7 @@
         <v>59</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="69" spans="2:5" x14ac:dyDescent="0.4">
@@ -2541,7 +2541,7 @@
   <dimension ref="A2:R18"/>
   <sheetViews>
     <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="N28" sqref="N28"/>
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -3472,8 +3472,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E23AF604-FC28-4226-8DE7-02ED7FA4FC89}">
   <dimension ref="A2:S9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="S5" sqref="S5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -3595,7 +3595,7 @@
         <v>177</v>
       </c>
       <c r="S3" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.4">
@@ -3651,7 +3651,7 @@
         <v>177</v>
       </c>
       <c r="S4" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.4">
@@ -3659,10 +3659,10 @@
         <v>233</v>
       </c>
       <c r="B5" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C5" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D5" t="s">
         <v>178</v>
@@ -3707,7 +3707,7 @@
         <v>177</v>
       </c>
       <c r="S5" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.4">
@@ -3715,10 +3715,10 @@
         <v>234</v>
       </c>
       <c r="B6" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C6" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D6" t="s">
         <v>178</v>
@@ -3763,7 +3763,7 @@
         <v>177</v>
       </c>
       <c r="S6" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.4">
@@ -3771,10 +3771,10 @@
         <v>235</v>
       </c>
       <c r="B7" t="s">
+        <v>228</v>
+      </c>
+      <c r="C7" t="s">
         <v>229</v>
-      </c>
-      <c r="C7" t="s">
-        <v>230</v>
       </c>
       <c r="D7" t="s">
         <v>178</v>
@@ -3819,7 +3819,7 @@
         <v>177</v>
       </c>
       <c r="S7" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.4">
@@ -3883,10 +3883,10 @@
         <v>237</v>
       </c>
       <c r="B9" t="s">
+        <v>237</v>
+      </c>
+      <c r="C9" t="s">
         <v>190</v>
-      </c>
-      <c r="C9" t="s">
-        <v>191</v>
       </c>
       <c r="D9" t="s">
         <v>179</v>
@@ -3931,7 +3931,7 @@
         <v>184</v>
       </c>
       <c r="S9" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
   </sheetData>
@@ -3961,7 +3961,7 @@
   <sheetData>
     <row r="2" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>6</v>
@@ -3979,13 +3979,13 @@
         <v>51</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="H2" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="I2" s="1" t="s">
         <v>208</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>209</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>9</v>
@@ -4014,16 +4014,16 @@
         <v>261</v>
       </c>
       <c r="B3" t="s">
+        <v>205</v>
+      </c>
+      <c r="C3" t="s">
         <v>206</v>
       </c>
-      <c r="C3" t="s">
-        <v>207</v>
-      </c>
       <c r="D3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G3" t="s">
         <v>185</v>
@@ -4053,7 +4053,7 @@
         <v>3</v>
       </c>
       <c r="P3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.4">
@@ -4061,16 +4061,16 @@
         <v>262</v>
       </c>
       <c r="B4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D4" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F4" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G4" t="s">
         <v>185</v>
@@ -4100,7 +4100,7 @@
         <v>4</v>
       </c>
       <c r="P4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.4">
@@ -4108,16 +4108,16 @@
         <v>263</v>
       </c>
       <c r="B5" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C5" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D5" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F5" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G5">
         <v>4</v>
@@ -4147,7 +4147,7 @@
         <v>4</v>
       </c>
       <c r="P5" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.4">
@@ -4155,16 +4155,16 @@
         <v>264</v>
       </c>
       <c r="B6" t="s">
+        <v>214</v>
+      </c>
+      <c r="C6" t="s">
         <v>215</v>
       </c>
-      <c r="C6" t="s">
-        <v>216</v>
-      </c>
       <c r="D6" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F6" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G6" t="s">
         <v>185</v>
@@ -4194,7 +4194,7 @@
         <v>4</v>
       </c>
       <c r="P6" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.4">
@@ -4202,16 +4202,16 @@
         <v>265</v>
       </c>
       <c r="B7" t="s">
+        <v>199</v>
+      </c>
+      <c r="C7" t="s">
         <v>200</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
+        <v>202</v>
+      </c>
+      <c r="F7" t="s">
         <v>201</v>
-      </c>
-      <c r="D7" t="s">
-        <v>203</v>
-      </c>
-      <c r="F7" t="s">
-        <v>202</v>
       </c>
       <c r="G7" t="s">
         <v>185</v>
@@ -4241,7 +4241,7 @@
         <v>3</v>
       </c>
       <c r="P7" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.4">
@@ -4249,16 +4249,16 @@
         <v>266</v>
       </c>
       <c r="B8" t="s">
+        <v>203</v>
+      </c>
+      <c r="C8" t="s">
         <v>204</v>
       </c>
-      <c r="C8" t="s">
-        <v>205</v>
-      </c>
       <c r="D8" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F8" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G8" t="s">
         <v>185</v>
@@ -4288,7 +4288,7 @@
         <v>4</v>
       </c>
       <c r="P8" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
   </sheetData>

--- a/데이터테이블/아이템 데이터 테이블.xlsx
+++ b/데이터테이블/아이템 데이터 테이블.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\revoltday\RevoltDay\데이터테이블\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F866C93-9023-452C-AEED-4FD328FEAAA0}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7410069-5486-4E01-A1EC-05EC69FFEE65}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8916" activeTab="3" xr2:uid="{8059BBFD-96BC-42E1-A9DD-996BAD7E44E4}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8916" activeTab="4" xr2:uid="{8059BBFD-96BC-42E1-A9DD-996BAD7E44E4}"/>
   </bookViews>
   <sheets>
     <sheet name="문서 정보" sheetId="3" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="584" uniqueCount="238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="597" uniqueCount="241">
   <si>
     <t>장비 아이템</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -673,18 +673,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1인승바이크</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Monocycle</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>행동</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Move</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -705,10 +693,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1인승 자기부상 바이크. 참고로 랜트용이다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Codex</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -985,6 +969,34 @@
   </si>
   <si>
     <t>하늘철 탑승권</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Monocycle cp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>바이크업체</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1인승 자기부상 바이크를 랜트하는 곳. 사용 시 \20 획득. 쿨타임 4턴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Move</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자유</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이동 상승 수치</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1663,10 +1675,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B36C15E-DDD8-44F4-AA27-EAACC0E62D51}">
-  <dimension ref="B2:I69"/>
+  <dimension ref="B2:I70"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+    <sheetView topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="C64" sqref="C64:C65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1691,10 +1703,10 @@
         <v>49</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="G2" s="13" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="H2" s="13"/>
       <c r="I2" s="13"/>
@@ -1730,7 +1742,7 @@
         <v>3</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>4</v>
@@ -1877,16 +1889,16 @@
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B16" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="E16" s="1" t="s">
         <v>162</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.4">
@@ -1987,7 +1999,7 @@
         <v>35</v>
       </c>
       <c r="G23" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.4">
@@ -2023,7 +2035,7 @@
         <v>3</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>4</v>
@@ -2104,16 +2116,16 @@
     </row>
     <row r="36" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B36" s="1" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
     </row>
     <row r="37" spans="2:5" x14ac:dyDescent="0.4">
@@ -2146,16 +2158,16 @@
     </row>
     <row r="39" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B39" s="1" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C39" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="E39" s="1" t="s">
         <v>163</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="E39" s="1" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="40" spans="2:5" x14ac:dyDescent="0.4">
@@ -2303,7 +2315,7 @@
         <v>3</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="D54" s="1" t="s">
         <v>4</v>
@@ -2351,7 +2363,7 @@
         <v>59</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
     </row>
     <row r="58" spans="2:5" x14ac:dyDescent="0.4">
@@ -2384,7 +2396,7 @@
     </row>
     <row r="60" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B60" s="1" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>12</v>
@@ -2393,12 +2405,12 @@
         <v>59</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
     </row>
     <row r="61" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B61" s="1" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>12</v>
@@ -2407,12 +2419,12 @@
         <v>59</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
     </row>
     <row r="62" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B62" s="1" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="C62" s="1" t="s">
         <v>12</v>
@@ -2421,7 +2433,7 @@
         <v>59</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
     </row>
     <row r="63" spans="2:5" x14ac:dyDescent="0.4">
@@ -2454,21 +2466,21 @@
     </row>
     <row r="65" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B65" s="1" t="s">
-        <v>47</v>
+        <v>237</v>
       </c>
       <c r="C65" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>59</v>
+        <v>238</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>52</v>
+        <v>239</v>
       </c>
     </row>
     <row r="66" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B66" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C66" s="1" t="s">
         <v>13</v>
@@ -2477,12 +2489,12 @@
         <v>59</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="67" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B67" s="1" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="C67" s="1" t="s">
         <v>13</v>
@@ -2491,12 +2503,12 @@
         <v>59</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="68" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B68" s="1" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="C68" s="1" t="s">
         <v>13</v>
@@ -2505,20 +2517,34 @@
         <v>59</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>210</v>
+        <v>54</v>
       </c>
     </row>
     <row r="69" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B69" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="70" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B70" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C69" s="1" t="s">
+      <c r="C70" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D69" s="1" t="s">
+      <c r="D70" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="E69" s="1" t="s">
+      <c r="E70" s="1" t="s">
         <v>35</v>
       </c>
     </row>
@@ -2538,10 +2564,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E2A1BC4-CB06-4245-B5CC-AAC046658193}">
-  <dimension ref="A2:R18"/>
+  <dimension ref="A2:R17"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="I24" sqref="I24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A18" sqref="A18:XFD18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -2586,7 +2612,7 @@
         <v>10</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="K2" s="1" t="s">
         <v>14</v>
@@ -3405,59 +3431,6 @@
         <v>157</v>
       </c>
       <c r="R17" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="A18">
-        <v>216</v>
-      </c>
-      <c r="B18" t="s">
-        <v>159</v>
-      </c>
-      <c r="C18" t="s">
-        <v>160</v>
-      </c>
-      <c r="D18" t="s">
-        <v>161</v>
-      </c>
-      <c r="F18">
-        <v>3</v>
-      </c>
-      <c r="G18" t="s">
-        <v>124</v>
-      </c>
-      <c r="H18" s="9" t="s">
-        <v>124</v>
-      </c>
-      <c r="I18" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="J18">
-        <v>3</v>
-      </c>
-      <c r="K18" t="b">
-        <v>0</v>
-      </c>
-      <c r="L18" t="s">
-        <v>124</v>
-      </c>
-      <c r="M18" t="b">
-        <v>1</v>
-      </c>
-      <c r="N18" s="8">
-        <v>20</v>
-      </c>
-      <c r="O18" t="b">
-        <v>1</v>
-      </c>
-      <c r="P18" s="8">
-        <v>4</v>
-      </c>
-      <c r="Q18" t="s">
-        <v>167</v>
-      </c>
-      <c r="R18" t="s">
         <v>124</v>
       </c>
     </row>
@@ -3472,8 +3445,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E23AF604-FC28-4226-8DE7-02ED7FA4FC89}">
   <dimension ref="A2:S9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P15" sqref="P15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -3485,7 +3458,7 @@
   <sheetData>
     <row r="2" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>6</v>
@@ -3503,7 +3476,7 @@
         <v>19</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>9</v>
@@ -3512,7 +3485,7 @@
         <v>10</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="K2" s="1" t="s">
         <v>14</v>
@@ -3547,13 +3520,13 @@
         <v>231</v>
       </c>
       <c r="B3" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="C3" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="D3" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="F3">
         <v>3</v>
@@ -3562,13 +3535,13 @@
         <v>4</v>
       </c>
       <c r="H3" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="I3" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="J3" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="K3" t="b">
         <v>1</v>
@@ -3577,11 +3550,11 @@
         <v>3</v>
       </c>
       <c r="M3" t="s">
+        <v>177</v>
+      </c>
+      <c r="N3" t="s">
         <v>181</v>
       </c>
-      <c r="N3" t="s">
-        <v>185</v>
-      </c>
       <c r="O3" t="b">
         <v>1</v>
       </c>
@@ -3589,13 +3562,13 @@
         <v>1</v>
       </c>
       <c r="Q3" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="R3" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="S3" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.4">
@@ -3603,13 +3576,13 @@
         <v>232</v>
       </c>
       <c r="B4" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="C4" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="D4" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="F4">
         <v>3</v>
@@ -3618,13 +3591,13 @@
         <v>8</v>
       </c>
       <c r="H4" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="I4" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="J4" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="K4" t="b">
         <v>1</v>
@@ -3633,10 +3606,10 @@
         <v>6</v>
       </c>
       <c r="M4" t="s">
+        <v>177</v>
+      </c>
+      <c r="N4" t="s">
         <v>181</v>
-      </c>
-      <c r="N4" t="s">
-        <v>185</v>
       </c>
       <c r="O4" t="b">
         <v>1</v>
@@ -3645,13 +3618,13 @@
         <v>2</v>
       </c>
       <c r="Q4" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="R4" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="S4" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.4">
@@ -3659,28 +3632,28 @@
         <v>233</v>
       </c>
       <c r="B5" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="C5" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="D5" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="F5">
         <v>3</v>
       </c>
       <c r="G5" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="H5">
         <v>1</v>
       </c>
       <c r="I5" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="J5" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="K5" t="b">
         <v>1</v>
@@ -3689,11 +3662,11 @@
         <v>3</v>
       </c>
       <c r="M5" t="s">
+        <v>177</v>
+      </c>
+      <c r="N5" t="s">
         <v>181</v>
       </c>
-      <c r="N5" t="s">
-        <v>185</v>
-      </c>
       <c r="O5" t="b">
         <v>1</v>
       </c>
@@ -3701,13 +3674,13 @@
         <v>1</v>
       </c>
       <c r="Q5" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="R5" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="S5" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.4">
@@ -3715,28 +3688,28 @@
         <v>234</v>
       </c>
       <c r="B6" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="C6" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="D6" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="F6">
         <v>3</v>
       </c>
       <c r="G6" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="H6">
         <v>2</v>
       </c>
       <c r="I6" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="J6" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="K6" t="b">
         <v>1</v>
@@ -3745,10 +3718,10 @@
         <v>6</v>
       </c>
       <c r="M6" t="s">
+        <v>177</v>
+      </c>
+      <c r="N6" t="s">
         <v>181</v>
-      </c>
-      <c r="N6" t="s">
-        <v>185</v>
       </c>
       <c r="O6" t="b">
         <v>1</v>
@@ -3757,13 +3730,13 @@
         <v>2</v>
       </c>
       <c r="Q6" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="R6" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="S6" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.4">
@@ -3771,28 +3744,28 @@
         <v>235</v>
       </c>
       <c r="B7" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="C7" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="D7" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="F7">
         <v>3</v>
       </c>
       <c r="G7" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="H7" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="I7">
         <v>1</v>
       </c>
       <c r="J7" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="K7" t="b">
         <v>1</v>
@@ -3801,11 +3774,11 @@
         <v>3</v>
       </c>
       <c r="M7" t="s">
+        <v>177</v>
+      </c>
+      <c r="N7" t="s">
         <v>181</v>
       </c>
-      <c r="N7" t="s">
-        <v>185</v>
-      </c>
       <c r="O7" t="b">
         <v>1</v>
       </c>
@@ -3813,13 +3786,13 @@
         <v>1</v>
       </c>
       <c r="Q7" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="R7" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="S7" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.4">
@@ -3827,25 +3800,25 @@
         <v>236</v>
       </c>
       <c r="B8" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="C8" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="D8" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="F8">
         <v>3</v>
       </c>
       <c r="G8" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="H8" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="I8" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="J8">
         <v>3</v>
@@ -3857,10 +3830,10 @@
         <v>5</v>
       </c>
       <c r="M8" t="s">
+        <v>177</v>
+      </c>
+      <c r="N8" t="s">
         <v>181</v>
-      </c>
-      <c r="N8" t="s">
-        <v>185</v>
       </c>
       <c r="O8" t="b">
         <v>1</v>
@@ -3869,13 +3842,13 @@
         <v>2</v>
       </c>
       <c r="Q8" t="s">
+        <v>178</v>
+      </c>
+      <c r="R8" t="s">
+        <v>173</v>
+      </c>
+      <c r="S8" t="s">
         <v>182</v>
-      </c>
-      <c r="R8" t="s">
-        <v>177</v>
-      </c>
-      <c r="S8" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.4">
@@ -3883,28 +3856,28 @@
         <v>237</v>
       </c>
       <c r="B9" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="C9" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="D9" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="F9">
         <v>3</v>
       </c>
       <c r="G9" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="H9" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="I9" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="J9" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="K9" t="b">
         <v>1</v>
@@ -3913,11 +3886,11 @@
         <v>3</v>
       </c>
       <c r="M9" t="s">
+        <v>177</v>
+      </c>
+      <c r="N9" t="s">
         <v>181</v>
       </c>
-      <c r="N9" t="s">
-        <v>185</v>
-      </c>
       <c r="O9" t="b">
         <v>1</v>
       </c>
@@ -3925,13 +3898,13 @@
         <v>1</v>
       </c>
       <c r="Q9" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="R9" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="S9" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
     </row>
   </sheetData>
@@ -3943,10 +3916,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62534935-8F4B-408B-A392-A1783AEAD5F6}">
-  <dimension ref="A2:P8"/>
+  <dimension ref="A2:S9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L19" sqref="L19"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="O9" sqref="O9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -3956,12 +3929,13 @@
     <col min="6" max="6" width="12.5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.5" customWidth="1"/>
     <col min="11" max="11" width="10" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="109.59765625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10" customWidth="1"/>
+    <col min="17" max="17" width="109.59765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>6</v>
@@ -3979,13 +3953,13 @@
         <v>51</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>9</v>
@@ -3994,305 +3968,380 @@
         <v>10</v>
       </c>
       <c r="L2" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="M2" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="N2" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="O2" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="O2" s="1" t="s">
+      <c r="P2" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="P2" s="1" t="s">
+      <c r="Q2" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>261</v>
       </c>
       <c r="B3" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="C3" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="D3" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="F3" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="G3" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="H3" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="I3" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="J3">
         <v>4</v>
       </c>
       <c r="K3" t="s">
-        <v>185</v>
-      </c>
-      <c r="L3" s="8">
+        <v>181</v>
+      </c>
+      <c r="L3" t="s">
+        <v>240</v>
+      </c>
+      <c r="M3" s="8">
         <v>10</v>
       </c>
-      <c r="M3" s="8">
+      <c r="N3" s="8">
         <v>30</v>
       </c>
-      <c r="N3">
-        <v>1</v>
-      </c>
       <c r="O3">
+        <v>1</v>
+      </c>
+      <c r="P3">
         <v>3</v>
       </c>
-      <c r="P3" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="Q3" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>262</v>
       </c>
       <c r="B4" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="C4" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="D4" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="F4" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="G4" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="H4">
         <v>10</v>
       </c>
       <c r="I4" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="J4" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="K4" t="s">
-        <v>185</v>
-      </c>
-      <c r="L4" s="8">
+        <v>181</v>
+      </c>
+      <c r="L4" t="s">
+        <v>240</v>
+      </c>
+      <c r="M4" s="8">
         <v>10</v>
       </c>
-      <c r="M4" s="8">
+      <c r="N4" s="8">
         <v>30</v>
       </c>
-      <c r="N4" t="s">
-        <v>185</v>
-      </c>
-      <c r="O4">
+      <c r="O4" t="s">
+        <v>181</v>
+      </c>
+      <c r="P4">
         <v>4</v>
       </c>
-      <c r="P4" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="Q4" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>263</v>
       </c>
       <c r="B5" t="s">
+        <v>190</v>
+      </c>
+      <c r="C5" t="s">
+        <v>192</v>
+      </c>
+      <c r="D5" t="s">
         <v>194</v>
       </c>
-      <c r="C5" t="s">
-        <v>196</v>
-      </c>
-      <c r="D5" t="s">
-        <v>198</v>
-      </c>
       <c r="F5" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="G5">
         <v>4</v>
       </c>
       <c r="H5" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="I5" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="J5" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="K5" t="s">
-        <v>185</v>
-      </c>
-      <c r="L5" s="8">
+        <v>181</v>
+      </c>
+      <c r="L5" t="s">
+        <v>240</v>
+      </c>
+      <c r="M5" s="8">
         <v>10</v>
       </c>
-      <c r="M5" s="8">
+      <c r="N5" s="8">
         <v>30</v>
       </c>
-      <c r="N5">
-        <v>1</v>
-      </c>
       <c r="O5">
+        <v>1</v>
+      </c>
+      <c r="P5">
         <v>4</v>
       </c>
-      <c r="P5" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="Q5" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>264</v>
       </c>
       <c r="B6" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="C6" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="D6" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="F6" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="G6" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="H6" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="I6" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="J6">
         <v>-3</v>
       </c>
       <c r="K6" t="s">
-        <v>185</v>
-      </c>
-      <c r="L6" s="8">
+        <v>181</v>
+      </c>
+      <c r="L6" t="s">
+        <v>240</v>
+      </c>
+      <c r="M6" s="8">
         <v>10</v>
       </c>
-      <c r="M6" s="8">
+      <c r="N6" s="8">
         <v>30</v>
       </c>
-      <c r="N6">
-        <v>1</v>
-      </c>
       <c r="O6">
+        <v>1</v>
+      </c>
+      <c r="P6">
         <v>4</v>
       </c>
-      <c r="P6" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="Q6" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>265</v>
       </c>
       <c r="B7" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="C7" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="D7" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="F7" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="G7" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="H7" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="I7" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="J7" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="K7">
         <v>4</v>
       </c>
-      <c r="L7" s="8">
+      <c r="L7" t="s">
+        <v>240</v>
+      </c>
+      <c r="M7" s="8">
         <v>10</v>
       </c>
-      <c r="M7" s="8">
+      <c r="N7" s="8">
         <v>30</v>
       </c>
-      <c r="N7">
-        <v>1</v>
-      </c>
       <c r="O7">
+        <v>1</v>
+      </c>
+      <c r="P7">
         <v>3</v>
       </c>
-      <c r="P7" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="Q7" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>266</v>
       </c>
       <c r="B8" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="C8" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="D8" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="F8" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="G8" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="H8" t="s">
-        <v>185</v>
+        <v>124</v>
       </c>
       <c r="I8" s="8">
         <v>20</v>
       </c>
       <c r="J8" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="K8" t="s">
-        <v>185</v>
-      </c>
-      <c r="L8" s="8">
+        <v>181</v>
+      </c>
+      <c r="L8" t="s">
+        <v>240</v>
+      </c>
+      <c r="M8" s="8">
         <v>10</v>
       </c>
-      <c r="M8" s="8">
+      <c r="N8" s="8">
         <v>20</v>
       </c>
-      <c r="N8" t="s">
-        <v>185</v>
-      </c>
-      <c r="O8">
+      <c r="O8" t="s">
+        <v>240</v>
+      </c>
+      <c r="P8">
         <v>4</v>
       </c>
-      <c r="P8" t="s">
-        <v>221</v>
+      <c r="Q8" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A9">
+        <v>267</v>
+      </c>
+      <c r="B9" t="s">
+        <v>235</v>
+      </c>
+      <c r="C9" t="s">
+        <v>234</v>
+      </c>
+      <c r="D9" t="s">
+        <v>174</v>
+      </c>
+      <c r="F9" t="s">
+        <v>197</v>
+      </c>
+      <c r="G9" t="s">
+        <v>240</v>
+      </c>
+      <c r="H9" s="9" t="s">
+        <v>240</v>
+      </c>
+      <c r="I9" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="J9" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="L9">
+        <v>4</v>
+      </c>
+      <c r="M9" s="8">
+        <v>10</v>
+      </c>
+      <c r="N9" s="8">
+        <v>20</v>
+      </c>
+      <c r="O9">
+        <v>1</v>
+      </c>
+      <c r="P9" s="8">
+        <v>4</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>236</v>
+      </c>
+      <c r="S9" t="s">
+        <v>124</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/데이터테이블/아이템 데이터 테이블.xlsx
+++ b/데이터테이블/아이템 데이터 테이블.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\revoltday\RevoltDay\데이터테이블\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7410069-5486-4E01-A1EC-05EC69FFEE65}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A56991C-10B6-4F53-98EB-CDB5E4775C49}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8916" activeTab="4" xr2:uid="{8059BBFD-96BC-42E1-A9DD-996BAD7E44E4}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8916" activeTab="2" xr2:uid="{8059BBFD-96BC-42E1-A9DD-996BAD7E44E4}"/>
   </bookViews>
   <sheets>
     <sheet name="문서 정보" sheetId="3" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="597" uniqueCount="241">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="626" uniqueCount="270">
   <si>
     <t>장비 아이템</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -997,6 +997,122 @@
   </si>
   <si>
     <t>-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>armor1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>outfight1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>outfight2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>outfight3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>infight1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>infight2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>infight3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>armor2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>armor3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>grap1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>grap2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>grap3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hpPotion1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hpPotion2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cherry2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cherry3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nanomint1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tiket1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tiket2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>defencedrone CP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fundmanager</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>guardbot CP2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>medic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Monocycle CP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>whitehacker</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Detective</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Detect1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Detect2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Detect3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2566,8 +2682,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E2A1BC4-CB06-4245-B5CC-AAC046658193}">
   <dimension ref="A2:R17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A18" sqref="A18:XFD18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -2652,6 +2768,9 @@
       <c r="D3" t="s">
         <v>101</v>
       </c>
+      <c r="E3" t="s">
+        <v>245</v>
+      </c>
       <c r="F3">
         <v>3</v>
       </c>
@@ -2705,6 +2824,9 @@
       <c r="D4" t="s">
         <v>101</v>
       </c>
+      <c r="E4" t="s">
+        <v>242</v>
+      </c>
       <c r="F4">
         <v>3</v>
       </c>
@@ -2758,6 +2880,9 @@
       <c r="D5" t="s">
         <v>101</v>
       </c>
+      <c r="E5" t="s">
+        <v>250</v>
+      </c>
       <c r="F5">
         <v>3</v>
       </c>
@@ -2811,6 +2936,9 @@
       <c r="D6" t="s">
         <v>101</v>
       </c>
+      <c r="E6" t="s">
+        <v>241</v>
+      </c>
       <c r="F6">
         <v>3</v>
       </c>
@@ -2864,6 +2992,9 @@
       <c r="D7" t="s">
         <v>101</v>
       </c>
+      <c r="E7" t="s">
+        <v>246</v>
+      </c>
       <c r="F7">
         <v>3</v>
       </c>
@@ -2917,6 +3048,9 @@
       <c r="D8" t="s">
         <v>101</v>
       </c>
+      <c r="E8" t="s">
+        <v>243</v>
+      </c>
       <c r="F8">
         <v>3</v>
       </c>
@@ -2970,6 +3104,9 @@
       <c r="D9" t="s">
         <v>101</v>
       </c>
+      <c r="E9" t="s">
+        <v>251</v>
+      </c>
       <c r="F9">
         <v>3</v>
       </c>
@@ -3023,6 +3160,9 @@
       <c r="D10" t="s">
         <v>101</v>
       </c>
+      <c r="E10" t="s">
+        <v>248</v>
+      </c>
       <c r="F10">
         <v>3</v>
       </c>
@@ -3076,6 +3216,9 @@
       <c r="D11" t="s">
         <v>101</v>
       </c>
+      <c r="E11" t="s">
+        <v>247</v>
+      </c>
       <c r="F11">
         <v>3</v>
       </c>
@@ -3129,6 +3272,9 @@
       <c r="D12" t="s">
         <v>101</v>
       </c>
+      <c r="E12" t="s">
+        <v>244</v>
+      </c>
       <c r="F12">
         <v>3</v>
       </c>
@@ -3182,6 +3328,9 @@
       <c r="D13" t="s">
         <v>101</v>
       </c>
+      <c r="E13" t="s">
+        <v>252</v>
+      </c>
       <c r="F13">
         <v>3</v>
       </c>
@@ -3235,6 +3384,9 @@
       <c r="D14" t="s">
         <v>101</v>
       </c>
+      <c r="E14" t="s">
+        <v>249</v>
+      </c>
       <c r="F14">
         <v>3</v>
       </c>
@@ -3288,6 +3440,9 @@
       <c r="D15" t="s">
         <v>155</v>
       </c>
+      <c r="E15" t="s">
+        <v>267</v>
+      </c>
       <c r="F15">
         <v>3</v>
       </c>
@@ -3341,6 +3496,9 @@
       <c r="D16" t="s">
         <v>155</v>
       </c>
+      <c r="E16" t="s">
+        <v>268</v>
+      </c>
       <c r="F16">
         <v>3</v>
       </c>
@@ -3393,6 +3551,9 @@
       </c>
       <c r="D17" t="s">
         <v>155</v>
+      </c>
+      <c r="E17" t="s">
+        <v>269</v>
       </c>
       <c r="F17">
         <v>3</v>
@@ -3446,7 +3607,7 @@
   <dimension ref="A2:S9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P15" sqref="P15"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -3528,6 +3689,9 @@
       <c r="D3" t="s">
         <v>168</v>
       </c>
+      <c r="E3" t="s">
+        <v>253</v>
+      </c>
       <c r="F3">
         <v>3</v>
       </c>
@@ -3584,6 +3748,9 @@
       <c r="D4" t="s">
         <v>168</v>
       </c>
+      <c r="E4" t="s">
+        <v>254</v>
+      </c>
       <c r="F4">
         <v>3</v>
       </c>
@@ -3640,6 +3807,9 @@
       <c r="D5" t="s">
         <v>174</v>
       </c>
+      <c r="E5" t="s">
+        <v>255</v>
+      </c>
       <c r="F5">
         <v>3</v>
       </c>
@@ -3696,6 +3866,9 @@
       <c r="D6" t="s">
         <v>174</v>
       </c>
+      <c r="E6" t="s">
+        <v>256</v>
+      </c>
       <c r="F6">
         <v>3</v>
       </c>
@@ -3752,6 +3925,9 @@
       <c r="D7" t="s">
         <v>174</v>
       </c>
+      <c r="E7" t="s">
+        <v>257</v>
+      </c>
       <c r="F7">
         <v>3</v>
       </c>
@@ -3808,6 +3984,9 @@
       <c r="D8" t="s">
         <v>174</v>
       </c>
+      <c r="E8" t="s">
+        <v>258</v>
+      </c>
       <c r="F8">
         <v>3</v>
       </c>
@@ -3863,6 +4042,9 @@
       </c>
       <c r="D9" t="s">
         <v>175</v>
+      </c>
+      <c r="E9" t="s">
+        <v>259</v>
       </c>
       <c r="F9">
         <v>3</v>
@@ -3918,14 +4100,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62534935-8F4B-408B-A392-A1783AEAD5F6}">
   <dimension ref="A2:S9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="O9" sqref="O9"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="2" max="2" width="13.69921875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.8984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.5" customWidth="1"/>
     <col min="11" max="11" width="10" bestFit="1" customWidth="1"/>
@@ -3999,6 +4182,9 @@
       <c r="D3" t="s">
         <v>198</v>
       </c>
+      <c r="E3" t="s">
+        <v>262</v>
+      </c>
       <c r="F3" t="s">
         <v>197</v>
       </c>
@@ -4049,6 +4235,9 @@
       <c r="D4" t="s">
         <v>194</v>
       </c>
+      <c r="E4" t="s">
+        <v>263</v>
+      </c>
       <c r="F4" t="s">
         <v>197</v>
       </c>
@@ -4099,6 +4288,9 @@
       <c r="D5" t="s">
         <v>194</v>
       </c>
+      <c r="E5" t="s">
+        <v>265</v>
+      </c>
       <c r="F5" t="s">
         <v>197</v>
       </c>
@@ -4149,6 +4341,9 @@
       <c r="D6" t="s">
         <v>198</v>
       </c>
+      <c r="E6" t="s">
+        <v>260</v>
+      </c>
       <c r="F6" t="s">
         <v>197</v>
       </c>
@@ -4199,6 +4394,9 @@
       <c r="D7" t="s">
         <v>198</v>
       </c>
+      <c r="E7" t="s">
+        <v>266</v>
+      </c>
       <c r="F7" t="s">
         <v>197</v>
       </c>
@@ -4249,6 +4447,9 @@
       <c r="D8" t="s">
         <v>194</v>
       </c>
+      <c r="E8" t="s">
+        <v>261</v>
+      </c>
       <c r="F8" t="s">
         <v>197</v>
       </c>
@@ -4298,6 +4499,9 @@
       </c>
       <c r="D9" t="s">
         <v>174</v>
+      </c>
+      <c r="E9" t="s">
+        <v>264</v>
       </c>
       <c r="F9" t="s">
         <v>197</v>

--- a/데이터테이블/아이템 데이터 테이블.xlsx
+++ b/데이터테이블/아이템 데이터 테이블.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21126"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\revoltday\RevoltDay\데이터테이블\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wjdwltn\Documents\GitHub\RevoltDay\데이터테이블\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A56991C-10B6-4F53-98EB-CDB5E4775C49}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8916" activeTab="2" xr2:uid="{8059BBFD-96BC-42E1-A9DD-996BAD7E44E4}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8910" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="문서 정보" sheetId="3" r:id="rId1"/>
@@ -19,7 +18,7 @@
     <sheet name="소모용 아이템" sheetId="4" r:id="rId4"/>
     <sheet name="조력자" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="626" uniqueCount="270">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="694" uniqueCount="271">
   <si>
     <t>장비 아이템</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1048,78 +1047,82 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>hpPotion2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cherry2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cherry3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nanomint1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tiket1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tiket2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>defencedrone CP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fundmanager</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>guardbot CP2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>medic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Monocycle CP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>whitehacker</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Detective</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Detect1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Detect2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Detect3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>hpPotion1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>hpPotion2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cherry2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cherry3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>nanomint1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tiket1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tiket2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>defencedrone CP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Fundmanager</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>guardbot CP2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>medic</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Monocycle CP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>whitehacker</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Detective</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Detect1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Detect2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Detect3</t>
+    <t>Type</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="6" formatCode="&quot;₩&quot;#,##0;[Red]\-&quot;₩&quot;#,##0"/>
   </numFmts>
@@ -1573,19 +1576,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A88D2F1-858A-4218-B675-E38CAA48F459}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C7:K18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="5" max="5" width="11.59765625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="3:11" x14ac:dyDescent="0.4">
+    <row r="7" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C7" s="11" t="s">
         <v>78</v>
       </c>
@@ -1598,7 +1601,7 @@
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
     </row>
-    <row r="8" spans="3:11" x14ac:dyDescent="0.4">
+    <row r="8" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C8" s="12"/>
       <c r="D8" s="12"/>
       <c r="E8" s="12"/>
@@ -1609,7 +1612,7 @@
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
     </row>
-    <row r="9" spans="3:11" x14ac:dyDescent="0.4">
+    <row r="9" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
@@ -1620,7 +1623,7 @@
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
     </row>
-    <row r="10" spans="3:11" x14ac:dyDescent="0.4">
+    <row r="10" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C10" s="3" t="s">
         <v>79</v>
       </c>
@@ -1641,7 +1644,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="11" spans="3:11" x14ac:dyDescent="0.4">
+    <row r="11" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C11" s="3">
         <v>1</v>
       </c>
@@ -1660,7 +1663,7 @@
       <c r="J11" s="13"/>
       <c r="K11" s="3"/>
     </row>
-    <row r="12" spans="3:11" x14ac:dyDescent="0.4">
+    <row r="12" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C12" s="4">
         <v>101</v>
       </c>
@@ -1681,7 +1684,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="13" spans="3:11" x14ac:dyDescent="0.4">
+    <row r="13" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C13" s="5">
         <v>201</v>
       </c>
@@ -1698,7 +1701,7 @@
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
     </row>
-    <row r="14" spans="3:11" x14ac:dyDescent="0.4">
+    <row r="14" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C14" s="3">
         <v>301</v>
       </c>
@@ -1715,7 +1718,7 @@
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
     </row>
-    <row r="15" spans="3:11" x14ac:dyDescent="0.4">
+    <row r="15" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C15" s="6">
         <v>401</v>
       </c>
@@ -1732,7 +1735,7 @@
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
     </row>
-    <row r="16" spans="3:11" x14ac:dyDescent="0.4">
+    <row r="16" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C16" s="3">
         <v>501</v>
       </c>
@@ -1749,7 +1752,7 @@
       <c r="J16" s="2"/>
       <c r="K16" s="2"/>
     </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.4">
+    <row r="17" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C17" s="3">
         <v>601</v>
       </c>
@@ -1766,7 +1769,7 @@
       <c r="J17" s="2"/>
       <c r="K17" s="2"/>
     </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.4">
+    <row r="18" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
@@ -1790,28 +1793,28 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B36C15E-DDD8-44F4-AA27-EAACC0E62D51}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:I70"/>
   <sheetViews>
     <sheetView topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="C64" sqref="C64:C65"/>
+      <selection activeCell="E73" sqref="E73"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="11.09765625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.3984375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="57.3984375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.09765625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="22.19921875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6.69921875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.19921875" customWidth="1"/>
-    <col min="13" max="13" width="9.19921875" customWidth="1"/>
+    <col min="2" max="2" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="57.375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.25" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.75" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.25" customWidth="1"/>
+    <col min="13" max="13" width="9.25" customWidth="1"/>
     <col min="14" max="14" width="11" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="27.19921875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="27.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>50</v>
       </c>
@@ -1827,7 +1830,7 @@
       <c r="H2" s="13"/>
       <c r="I2" s="13"/>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
       <c r="F3" s="13" t="s">
         <v>57</v>
       </c>
@@ -1835,7 +1838,7 @@
       <c r="H3" s="13"/>
       <c r="I3" s="13"/>
     </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B5" s="13" t="s">
         <v>0</v>
       </c>
@@ -1843,7 +1846,7 @@
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>
     </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B6" s="13"/>
       <c r="C6" s="13"/>
       <c r="D6" s="13"/>
@@ -1853,7 +1856,7 @@
       </c>
       <c r="I6" s="1"/>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B7" s="1" t="s">
         <v>3</v>
       </c>
@@ -1873,7 +1876,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B8" s="1" t="s">
         <v>6</v>
       </c>
@@ -1893,7 +1896,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B9" s="1" t="s">
         <v>18</v>
       </c>
@@ -1913,7 +1916,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B10" s="1" t="s">
         <v>7</v>
       </c>
@@ -1933,7 +1936,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B11" s="1" t="s">
         <v>8</v>
       </c>
@@ -1947,7 +1950,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B12" s="1" t="s">
         <v>19</v>
       </c>
@@ -1961,7 +1964,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1975,7 +1978,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B14" s="1" t="s">
         <v>73</v>
       </c>
@@ -1989,7 +1992,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B15" s="1" t="s">
         <v>10</v>
       </c>
@@ -2003,7 +2006,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B16" s="1" t="s">
         <v>159</v>
       </c>
@@ -2017,7 +2020,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B17" s="1" t="s">
         <v>14</v>
       </c>
@@ -2031,7 +2034,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B18" s="1" t="s">
         <v>15</v>
       </c>
@@ -2045,7 +2048,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B19" s="1" t="s">
         <v>16</v>
       </c>
@@ -2059,7 +2062,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B20" s="1" t="s">
         <v>17</v>
       </c>
@@ -2073,7 +2076,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B21" s="1" t="s">
         <v>31</v>
       </c>
@@ -2087,7 +2090,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B22" s="1" t="s">
         <v>33</v>
       </c>
@@ -2101,7 +2104,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="23" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B23" s="1" t="s">
         <v>20</v>
       </c>
@@ -2118,7 +2121,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="24" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B24" s="1" t="s">
         <v>36</v>
       </c>
@@ -2132,7 +2135,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="28" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B28" s="13" t="s">
         <v>1</v>
       </c>
@@ -2140,13 +2143,13 @@
       <c r="D28" s="13"/>
       <c r="E28" s="13"/>
     </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="29" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B29" s="13"/>
       <c r="C29" s="13"/>
       <c r="D29" s="13"/>
       <c r="E29" s="13"/>
     </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="30" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B30" s="1" t="s">
         <v>3</v>
       </c>
@@ -2160,7 +2163,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="31" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B31" s="1" t="s">
         <v>6</v>
       </c>
@@ -2174,7 +2177,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="32" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B32" s="1" t="s">
         <v>18</v>
       </c>
@@ -2188,7 +2191,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="33" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B33" s="1" t="s">
         <v>7</v>
       </c>
@@ -2202,7 +2205,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="34" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B34" s="1" t="s">
         <v>8</v>
       </c>
@@ -2216,7 +2219,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="35" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B35" s="1" t="s">
         <v>19</v>
       </c>
@@ -2230,7 +2233,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="36" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B36" s="1" t="s">
         <v>169</v>
       </c>
@@ -2244,7 +2247,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="37" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="37" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B37" s="1" t="s">
         <v>9</v>
       </c>
@@ -2258,7 +2261,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="38" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="38" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B38" s="1" t="s">
         <v>10</v>
       </c>
@@ -2272,7 +2275,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="39" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="39" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B39" s="1" t="s">
         <v>159</v>
       </c>
@@ -2286,7 +2289,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="40" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="40" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B40" s="1" t="s">
         <v>14</v>
       </c>
@@ -2300,7 +2303,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="41" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="41" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B41" s="1" t="s">
         <v>15</v>
       </c>
@@ -2314,7 +2317,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="42" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="42" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B42" s="1" t="s">
         <v>16</v>
       </c>
@@ -2328,7 +2331,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="43" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="43" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B43" s="1" t="s">
         <v>17</v>
       </c>
@@ -2342,7 +2345,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="44" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="44" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B44" s="1" t="s">
         <v>31</v>
       </c>
@@ -2356,7 +2359,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="45" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="45" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B45" s="1" t="s">
         <v>33</v>
       </c>
@@ -2370,7 +2373,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="46" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="46" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B46" s="1" t="s">
         <v>40</v>
       </c>
@@ -2384,7 +2387,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="47" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="47" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B47" s="1" t="s">
         <v>45</v>
       </c>
@@ -2398,7 +2401,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="48" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="48" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B48" s="1" t="s">
         <v>20</v>
       </c>
@@ -2412,7 +2415,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="52" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="52" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B52" s="13" t="s">
         <v>2</v>
       </c>
@@ -2420,13 +2423,13 @@
       <c r="D52" s="13"/>
       <c r="E52" s="13"/>
     </row>
-    <row r="53" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="53" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B53" s="13"/>
       <c r="C53" s="13"/>
       <c r="D53" s="13"/>
       <c r="E53" s="13"/>
     </row>
-    <row r="54" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="54" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B54" s="1" t="s">
         <v>3</v>
       </c>
@@ -2440,7 +2443,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="55" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="55" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B55" s="1" t="s">
         <v>6</v>
       </c>
@@ -2454,7 +2457,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="56" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="56" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B56" s="1" t="s">
         <v>18</v>
       </c>
@@ -2468,7 +2471,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="57" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="57" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B57" s="1" t="s">
         <v>7</v>
       </c>
@@ -2482,7 +2485,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="58" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="58" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B58" s="1" t="s">
         <v>8</v>
       </c>
@@ -2496,7 +2499,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="59" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="59" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B59" s="1" t="s">
         <v>51</v>
       </c>
@@ -2510,7 +2513,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="60" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="60" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B60" s="1" t="s">
         <v>207</v>
       </c>
@@ -2524,7 +2527,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="61" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="61" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B61" s="1" t="s">
         <v>203</v>
       </c>
@@ -2538,7 +2541,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="62" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="62" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B62" s="1" t="s">
         <v>204</v>
       </c>
@@ -2552,7 +2555,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="63" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="63" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B63" s="1" t="s">
         <v>9</v>
       </c>
@@ -2566,7 +2569,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="64" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="64" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B64" s="1" t="s">
         <v>10</v>
       </c>
@@ -2580,7 +2583,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="65" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="65" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B65" s="1" t="s">
         <v>237</v>
       </c>
@@ -2594,7 +2597,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="66" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="66" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B66" s="1" t="s">
         <v>47</v>
       </c>
@@ -2608,7 +2611,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="67" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="67" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B67" s="1" t="s">
         <v>48</v>
       </c>
@@ -2622,7 +2625,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="68" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="68" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B68" s="1" t="s">
         <v>40</v>
       </c>
@@ -2636,7 +2639,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="69" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="69" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B69" s="1" t="s">
         <v>24</v>
       </c>
@@ -2650,7 +2653,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="70" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="70" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B70" s="1" t="s">
         <v>20</v>
       </c>
@@ -2679,27 +2682,27 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E2A1BC4-CB06-4245-B5CC-AAC046658193}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:R17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="R17" sqref="A2:R17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="13.69921875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.09765625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.19921875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.19921875" customWidth="1"/>
-    <col min="11" max="12" width="11.3984375" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="9.59765625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="50.59765625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.25" customWidth="1"/>
+    <col min="11" max="12" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="50.625" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="55" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>75</v>
       </c>
@@ -2755,7 +2758,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>201</v>
       </c>
@@ -2811,7 +2814,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>202</v>
       </c>
@@ -2867,7 +2870,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>203</v>
       </c>
@@ -2923,7 +2926,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>204</v>
       </c>
@@ -2979,7 +2982,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>205</v>
       </c>
@@ -3035,7 +3038,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>206</v>
       </c>
@@ -3091,7 +3094,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>207</v>
       </c>
@@ -3147,7 +3150,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>208</v>
       </c>
@@ -3203,7 +3206,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>209</v>
       </c>
@@ -3259,7 +3262,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>210</v>
       </c>
@@ -3315,7 +3318,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>211</v>
       </c>
@@ -3371,7 +3374,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>212</v>
       </c>
@@ -3427,7 +3430,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>213</v>
       </c>
@@ -3441,7 +3444,7 @@
         <v>155</v>
       </c>
       <c r="E15" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="F15">
         <v>3</v>
@@ -3483,7 +3486,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>214</v>
       </c>
@@ -3497,7 +3500,7 @@
         <v>155</v>
       </c>
       <c r="E16" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F16">
         <v>3</v>
@@ -3539,7 +3542,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>215</v>
       </c>
@@ -3553,7 +3556,7 @@
         <v>155</v>
       </c>
       <c r="E17" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="F17">
         <v>3</v>
@@ -3603,21 +3606,21 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E23AF604-FC28-4226-8DE7-02ED7FA4FC89}">
-  <dimension ref="A2:S9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:S27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="20.3984375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.296875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="79.19921875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.25" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="79.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>164</v>
       </c>
@@ -3676,7 +3679,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>231</v>
       </c>
@@ -3690,7 +3693,7 @@
         <v>168</v>
       </c>
       <c r="E3" t="s">
-        <v>253</v>
+        <v>269</v>
       </c>
       <c r="F3">
         <v>3</v>
@@ -3735,7 +3738,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>232</v>
       </c>
@@ -3749,7 +3752,7 @@
         <v>168</v>
       </c>
       <c r="E4" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F4">
         <v>3</v>
@@ -3794,7 +3797,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>233</v>
       </c>
@@ -3808,7 +3811,7 @@
         <v>174</v>
       </c>
       <c r="E5" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F5">
         <v>3</v>
@@ -3853,7 +3856,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>234</v>
       </c>
@@ -3867,7 +3870,7 @@
         <v>174</v>
       </c>
       <c r="E6" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F6">
         <v>3</v>
@@ -3912,7 +3915,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>235</v>
       </c>
@@ -3926,7 +3929,7 @@
         <v>174</v>
       </c>
       <c r="E7" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F7">
         <v>3</v>
@@ -3971,7 +3974,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>236</v>
       </c>
@@ -3985,7 +3988,7 @@
         <v>174</v>
       </c>
       <c r="E8" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F8">
         <v>3</v>
@@ -4030,7 +4033,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>237</v>
       </c>
@@ -4044,7 +4047,7 @@
         <v>175</v>
       </c>
       <c r="E9" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F9">
         <v>3</v>
@@ -4087,6 +4090,244 @@
       </c>
       <c r="S9" t="s">
         <v>187</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="C11" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="C12" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="C13" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="C14" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="C15" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="C16" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="17" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C17" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="18" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C18" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="19" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C19" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="20" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C20" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="21" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C21" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="22" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C22" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="23" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C23" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="24" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C24" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="25" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C25" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="26" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C26" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="27" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C27" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -4097,26 +4338,26 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62534935-8F4B-408B-A392-A1783AEAD5F6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:S9"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="13.69921875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.8984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.5" customWidth="1"/>
     <col min="11" max="11" width="10" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="10" customWidth="1"/>
-    <col min="17" max="17" width="109.59765625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="109.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>188</v>
       </c>
@@ -4169,7 +4410,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>261</v>
       </c>
@@ -4183,7 +4424,7 @@
         <v>198</v>
       </c>
       <c r="E3" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F3" t="s">
         <v>197</v>
@@ -4222,7 +4463,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>262</v>
       </c>
@@ -4236,7 +4477,7 @@
         <v>194</v>
       </c>
       <c r="E4" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F4" t="s">
         <v>197</v>
@@ -4275,7 +4516,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>263</v>
       </c>
@@ -4289,7 +4530,7 @@
         <v>194</v>
       </c>
       <c r="E5" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F5" t="s">
         <v>197</v>
@@ -4328,7 +4569,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>264</v>
       </c>
@@ -4342,7 +4583,7 @@
         <v>198</v>
       </c>
       <c r="E6" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F6" t="s">
         <v>197</v>
@@ -4381,7 +4622,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>265</v>
       </c>
@@ -4395,7 +4636,7 @@
         <v>198</v>
       </c>
       <c r="E7" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F7" t="s">
         <v>197</v>
@@ -4434,7 +4675,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>266</v>
       </c>
@@ -4448,7 +4689,7 @@
         <v>194</v>
       </c>
       <c r="E8" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F8" t="s">
         <v>197</v>
@@ -4487,7 +4728,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>267</v>
       </c>
@@ -4501,7 +4742,7 @@
         <v>174</v>
       </c>
       <c r="E9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F9" t="s">
         <v>197</v>
